--- a/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8998670894174421</v>
+        <v>0.8998670894174419</v>
       </c>
       <c r="D2">
         <v>0.9094949393888939</v>
       </c>
       <c r="E2">
-        <v>0.9193802810736559</v>
+        <v>0.9193802810736555</v>
       </c>
       <c r="F2">
-        <v>0.9267732806054609</v>
+        <v>0.9267732806054608</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.02814691934966</v>
       </c>
       <c r="J2">
-        <v>0.9255192411168162</v>
+        <v>0.925519241116816</v>
       </c>
       <c r="K2">
-        <v>0.9223778515170701</v>
+        <v>0.92237785151707</v>
       </c>
       <c r="L2">
-        <v>0.9320900725454256</v>
+        <v>0.9320900725454254</v>
       </c>
       <c r="M2">
-        <v>0.9393567143539078</v>
+        <v>0.9393567143539076</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9238378047014244</v>
+        <v>0.9238378047014254</v>
       </c>
       <c r="D3">
-        <v>0.9324138890738257</v>
+        <v>0.9324138890738267</v>
       </c>
       <c r="E3">
-        <v>0.9401339277690595</v>
+        <v>0.9401339277690601</v>
       </c>
       <c r="F3">
-        <v>0.9480922288432393</v>
+        <v>0.9480922288432402</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033336063250187</v>
+        <v>1.033336063250188</v>
       </c>
       <c r="J3">
-        <v>0.9466444473517333</v>
+        <v>0.9466444473517341</v>
       </c>
       <c r="K3">
-        <v>0.9439913925172905</v>
+        <v>0.9439913925172915</v>
       </c>
       <c r="L3">
-        <v>0.9515947940415497</v>
+        <v>0.9515947940415505</v>
       </c>
       <c r="M3">
-        <v>0.9594353819641019</v>
+        <v>0.9594353819641025</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.937858481966045</v>
+        <v>0.9378584819660465</v>
       </c>
       <c r="D4">
-        <v>0.9458352105467142</v>
+        <v>0.9458352105467155</v>
       </c>
       <c r="E4">
-        <v>0.9522895209099377</v>
+        <v>0.9522895209099391</v>
       </c>
       <c r="F4">
-        <v>0.9605902518712579</v>
+        <v>0.960590251871259</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.036347741799194</v>
       </c>
       <c r="J4">
-        <v>0.9589973934828964</v>
+        <v>0.9589973934828978</v>
       </c>
       <c r="K4">
-        <v>0.9566345202983285</v>
+        <v>0.9566345202983298</v>
       </c>
       <c r="L4">
-        <v>0.9630000475674474</v>
+        <v>0.9630000475674488</v>
       </c>
       <c r="M4">
-        <v>0.9711887997095917</v>
+        <v>0.9711887997095928</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9434605731520134</v>
+        <v>0.9434605731520124</v>
       </c>
       <c r="D5">
-        <v>0.9512008584917939</v>
+        <v>0.9512008584917925</v>
       </c>
       <c r="E5">
-        <v>0.9571493567246528</v>
+        <v>0.957149356724652</v>
       </c>
       <c r="F5">
-        <v>0.9655888844045259</v>
+        <v>0.9655888844045252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037544483825027</v>
+        <v>1.037544483825026</v>
       </c>
       <c r="J5">
-        <v>0.9639316605558828</v>
+        <v>0.9639316605558819</v>
       </c>
       <c r="K5">
-        <v>0.9616858020469795</v>
+        <v>0.9616858020469785</v>
       </c>
       <c r="L5">
-        <v>0.9675556282164611</v>
+        <v>0.9675556282164604</v>
       </c>
       <c r="M5">
-        <v>0.9758856185323876</v>
+        <v>0.9758856185323869</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.944385551487764</v>
+        <v>0.9443855514877625</v>
       </c>
       <c r="D6">
-        <v>0.9520869578242823</v>
+        <v>0.9520869578242807</v>
       </c>
       <c r="E6">
-        <v>0.9579519291138054</v>
+        <v>0.957951929113804</v>
       </c>
       <c r="F6">
-        <v>0.9664144700811463</v>
+        <v>0.966414470081145</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.037741668774216</v>
       </c>
       <c r="J6">
-        <v>0.9647462705605507</v>
+        <v>0.9647462705605492</v>
       </c>
       <c r="K6">
-        <v>0.9625197952201477</v>
+        <v>0.962519795220146</v>
       </c>
       <c r="L6">
-        <v>0.9683077092197003</v>
+        <v>0.9683077092196988</v>
       </c>
       <c r="M6">
-        <v>0.976661124424399</v>
+        <v>0.9766611244243979</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9379344155633352</v>
+        <v>0.9379344155633361</v>
       </c>
       <c r="D7">
-        <v>0.9459079279657079</v>
+        <v>0.9459079279657091</v>
       </c>
       <c r="E7">
-        <v>0.9523553828990434</v>
+        <v>0.9523553828990442</v>
       </c>
       <c r="F7">
-        <v>0.960657988225137</v>
+        <v>0.960657988225138</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036363990607029</v>
+        <v>1.03636399060703</v>
       </c>
       <c r="J7">
-        <v>0.9590642816560371</v>
+        <v>0.9590642816560383</v>
       </c>
       <c r="K7">
-        <v>0.9567029902875667</v>
+        <v>0.9567029902875678</v>
       </c>
       <c r="L7">
-        <v>0.9630618030043421</v>
+        <v>0.9630618030043431</v>
       </c>
       <c r="M7">
-        <v>0.9712524620191092</v>
+        <v>0.9712524620191101</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,22 +649,22 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9083232224534753</v>
+        <v>0.9083232224534754</v>
       </c>
       <c r="D8">
         <v>0.917575949609835</v>
       </c>
       <c r="E8">
-        <v>0.9266970599090588</v>
+        <v>0.9266970599090583</v>
       </c>
       <c r="F8">
-        <v>0.9342862225523776</v>
+        <v>0.9342862225523775</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029981965983321</v>
+        <v>1.029981965983322</v>
       </c>
       <c r="J8">
         <v>0.9329717998888274</v>
@@ -673,10 +673,10 @@
         <v>0.9300016566161726</v>
       </c>
       <c r="L8">
-        <v>0.9389708925484594</v>
+        <v>0.9389708925484589</v>
       </c>
       <c r="M8">
-        <v>0.9464365892373348</v>
+        <v>0.9464365892373346</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8397188624172317</v>
+        <v>0.8397188624172293</v>
       </c>
       <c r="D9">
-        <v>0.8521627224791246</v>
+        <v>0.8521627224791218</v>
       </c>
       <c r="E9">
-        <v>0.8675120375202583</v>
+        <v>0.8675120375202564</v>
       </c>
       <c r="F9">
-        <v>0.8736426170363414</v>
+        <v>0.8736426170363395</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015050947027664</v>
+        <v>1.015050947027663</v>
       </c>
       <c r="J9">
-        <v>0.8725508327992025</v>
+        <v>0.8725508327992002</v>
       </c>
       <c r="K9">
-        <v>0.868216371507131</v>
+        <v>0.8682163715071286</v>
       </c>
       <c r="L9">
-        <v>0.8831953362628132</v>
+        <v>0.8831953362628113</v>
       </c>
       <c r="M9">
-        <v>0.8891828570967989</v>
+        <v>0.8891828570967969</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.764299224113277</v>
+        <v>0.7642992241132748</v>
       </c>
       <c r="D10">
-        <v>0.7807386215334594</v>
+        <v>0.7807386215334572</v>
       </c>
       <c r="E10">
-        <v>0.8030770738444946</v>
+        <v>0.8030770738444923</v>
       </c>
       <c r="F10">
-        <v>0.8080838649258124</v>
+        <v>0.8080838649258102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9988457036311739</v>
+        <v>0.9988457036311731</v>
       </c>
       <c r="J10">
-        <v>0.8064322142700023</v>
+        <v>0.8064322142700004</v>
       </c>
       <c r="K10">
-        <v>0.8006404029799721</v>
+        <v>0.8006404029799696</v>
       </c>
       <c r="L10">
-        <v>0.8222225734525721</v>
+        <v>0.82222257345257</v>
       </c>
       <c r="M10">
-        <v>0.8270677919454557</v>
+        <v>0.8270677919454534</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6888835284410412</v>
+        <v>0.6888835284410502</v>
       </c>
       <c r="D11">
-        <v>0.7100557279123577</v>
+        <v>0.7100557279123659</v>
       </c>
       <c r="E11">
-        <v>0.7396600859728618</v>
+        <v>0.7396600859728696</v>
       </c>
       <c r="F11">
-        <v>0.7442928757967021</v>
+        <v>0.7442928757967094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9832884436432605</v>
+        <v>0.9832884436432624</v>
       </c>
       <c r="J11">
-        <v>0.7409866491562086</v>
+        <v>0.7409866491562164</v>
       </c>
       <c r="K11">
-        <v>0.733753181165784</v>
+        <v>0.7337531811657918</v>
       </c>
       <c r="L11">
-        <v>0.7620074428939436</v>
+        <v>0.7620074428939509</v>
       </c>
       <c r="M11">
-        <v>0.7664427607633025</v>
+        <v>0.7664427607633093</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6888835284410412</v>
+        <v>0.6888835284410502</v>
       </c>
       <c r="D12">
-        <v>0.7100557279123577</v>
+        <v>0.7100557279123659</v>
       </c>
       <c r="E12">
-        <v>0.7396600859728618</v>
+        <v>0.7396600859728696</v>
       </c>
       <c r="F12">
-        <v>0.7442928757967021</v>
+        <v>0.7442928757967094</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9832884436432605</v>
+        <v>0.9832884436432624</v>
       </c>
       <c r="J12">
-        <v>0.7409866491562086</v>
+        <v>0.7409866491562164</v>
       </c>
       <c r="K12">
-        <v>0.733753181165784</v>
+        <v>0.7337531811657918</v>
       </c>
       <c r="L12">
-        <v>0.7620074428939436</v>
+        <v>0.7620074428939509</v>
       </c>
       <c r="M12">
-        <v>0.7664427607633025</v>
+        <v>0.7664427607633093</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6888835284410412</v>
+        <v>0.6888835284410502</v>
       </c>
       <c r="D13">
-        <v>0.7100557279123577</v>
+        <v>0.7100557279123659</v>
       </c>
       <c r="E13">
-        <v>0.7396600859728618</v>
+        <v>0.7396600859728696</v>
       </c>
       <c r="F13">
-        <v>0.7442928757967021</v>
+        <v>0.7442928757967094</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9832884436432605</v>
+        <v>0.9832884436432624</v>
       </c>
       <c r="J13">
-        <v>0.7409866491562086</v>
+        <v>0.7409866491562164</v>
       </c>
       <c r="K13">
-        <v>0.733753181165784</v>
+        <v>0.7337531811657918</v>
       </c>
       <c r="L13">
-        <v>0.7620074428939436</v>
+        <v>0.7620074428939509</v>
       </c>
       <c r="M13">
-        <v>0.7664427607633025</v>
+        <v>0.7664427607633093</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6343015927068576</v>
+        <v>0.6343015927072008</v>
       </c>
       <c r="D14">
-        <v>0.6595643333075988</v>
+        <v>0.659564333307916</v>
       </c>
       <c r="E14">
-        <v>0.6946928179937415</v>
+        <v>0.6946928179940237</v>
       </c>
       <c r="F14">
-        <v>0.6997059591971783</v>
+        <v>0.6997059591974579</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9726321071969766</v>
+        <v>0.9726321071970433</v>
       </c>
       <c r="J14">
-        <v>0.6942913289790851</v>
+        <v>0.6942913289793784</v>
       </c>
       <c r="K14">
-        <v>0.6860139103947008</v>
+        <v>0.6860139103950007</v>
       </c>
       <c r="L14">
-        <v>0.7191872911534642</v>
+        <v>0.719187291153733</v>
       </c>
       <c r="M14">
-        <v>0.7239444966015997</v>
+        <v>0.7239444966018662</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6088384889083466</v>
+        <v>0.6088384889083482</v>
       </c>
       <c r="D15">
-        <v>0.6362672648361514</v>
+        <v>0.6362672648361529</v>
       </c>
       <c r="E15">
-        <v>0.6740739332206966</v>
+        <v>0.6740739332206982</v>
       </c>
       <c r="F15">
-        <v>0.6795021453739702</v>
+        <v>0.6795021453739718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9678734102478717</v>
+        <v>0.9678734102478723</v>
       </c>
       <c r="J15">
-        <v>0.6727720532010624</v>
+        <v>0.6727720532010637</v>
       </c>
       <c r="K15">
-        <v>0.6640066809856412</v>
+        <v>0.6640066809856427</v>
       </c>
       <c r="L15">
-        <v>0.6995128267184507</v>
+        <v>0.6995128267184522</v>
       </c>
       <c r="M15">
-        <v>0.7046412028223009</v>
+        <v>0.7046412028223024</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.5394058362302345</v>
+        <v>0.5394058362302353</v>
       </c>
       <c r="D16">
-        <v>0.5738978227089792</v>
+        <v>0.5738978227089798</v>
       </c>
       <c r="E16">
-        <v>0.6194273490587304</v>
+        <v>0.6194273490587311</v>
       </c>
       <c r="F16">
-        <v>0.6269547940975635</v>
+        <v>0.626954794097564</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.9557060429631991</v>
       </c>
       <c r="J16">
-        <v>0.6152600679263437</v>
+        <v>0.6152600679263444</v>
       </c>
       <c r="K16">
-        <v>0.6051667536318509</v>
+        <v>0.6051667536318515</v>
       </c>
       <c r="L16">
-        <v>0.6472014326257819</v>
+        <v>0.6472014326257824</v>
       </c>
       <c r="M16">
-        <v>0.6542227724597309</v>
+        <v>0.6542227724597315</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.5102150966559056</v>
+        <v>0.5102150966559053</v>
       </c>
       <c r="D17">
-        <v>0.5483547255275647</v>
+        <v>0.5483547255275646</v>
       </c>
       <c r="E17">
-        <v>0.5973510074920947</v>
+        <v>0.5973510074920942</v>
       </c>
       <c r="F17">
-        <v>0.6062683975484965</v>
+        <v>0.6062683975484964</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9509905767683209</v>
+        <v>0.9509905767683212</v>
       </c>
       <c r="J17">
-        <v>0.5917427545084388</v>
+        <v>0.5917427545084387</v>
       </c>
       <c r="K17">
-        <v>0.5810986988401948</v>
+        <v>0.5810986988401946</v>
       </c>
       <c r="L17">
-        <v>0.6259696382312099</v>
+        <v>0.6259696382312098</v>
       </c>
       <c r="M17">
-        <v>0.6342416858329026</v>
+        <v>0.6342416858329023</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.4951713349580826</v>
+        <v>0.495171334958083</v>
       </c>
       <c r="D18">
-        <v>0.535397722476703</v>
+        <v>0.5353977224767035</v>
       </c>
       <c r="E18">
-        <v>0.586238768707785</v>
+        <v>0.5862387687077851</v>
       </c>
       <c r="F18">
-        <v>0.5960092365711875</v>
+        <v>0.5960092365711878</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9486636019761269</v>
+        <v>0.9486636019761268</v>
       </c>
       <c r="J18">
-        <v>0.5798170792206753</v>
+        <v>0.5798170792206757</v>
       </c>
       <c r="K18">
-        <v>0.5688934891769621</v>
+        <v>0.5688934891769626</v>
       </c>
       <c r="L18">
-        <v>0.6152513133215117</v>
+        <v>0.6152513133215118</v>
       </c>
       <c r="M18">
-        <v>0.6242891961513177</v>
+        <v>0.6242891961513179</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.4902849709826898</v>
+        <v>0.4902849709826901</v>
       </c>
       <c r="D19">
-        <v>0.5312236033554244</v>
+        <v>0.5312236033554246</v>
       </c>
       <c r="E19">
         <v>0.5826727251519266</v>
       </c>
       <c r="F19">
-        <v>0.5927415558486758</v>
+        <v>0.5927415558486759</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>0.9479236298021199</v>
       </c>
       <c r="J19">
-        <v>0.5759751656946241</v>
+        <v>0.5759751656946244</v>
       </c>
       <c r="K19">
-        <v>0.564961663966453</v>
+        <v>0.5649616639664533</v>
       </c>
       <c r="L19">
-        <v>0.6118063732031587</v>
+        <v>0.6118063732031588</v>
       </c>
       <c r="M19">
-        <v>0.6211118127410311</v>
+        <v>0.6211118127410316</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.5131154988556097</v>
+        <v>0.5131154988556098</v>
       </c>
       <c r="D20">
-        <v>0.5508701124794921</v>
+        <v>0.5508701124794922</v>
       </c>
       <c r="E20">
-        <v>0.5995153895173821</v>
+        <v>0.5995153895173824</v>
       </c>
       <c r="F20">
-        <v>0.608279365922254</v>
+        <v>0.6082793659222542</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9514474925917106</v>
+        <v>0.9514474925917111</v>
       </c>
       <c r="J20">
-        <v>0.5940580732570947</v>
+        <v>0.5940580732570949</v>
       </c>
       <c r="K20">
         <v>0.5834683135843971</v>
       </c>
       <c r="L20">
-        <v>0.628054626399263</v>
+        <v>0.6280546263992632</v>
       </c>
       <c r="M20">
-        <v>0.6361888097585527</v>
+        <v>0.6361888097585529</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.5131154988556097</v>
+        <v>0.5131154988556098</v>
       </c>
       <c r="D21">
-        <v>0.5508701124794921</v>
+        <v>0.5508701124794922</v>
       </c>
       <c r="E21">
-        <v>0.5995153895173821</v>
+        <v>0.5995153895173824</v>
       </c>
       <c r="F21">
-        <v>0.608279365922254</v>
+        <v>0.6082793659222542</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9514474925917106</v>
+        <v>0.9514474925917111</v>
       </c>
       <c r="J21">
-        <v>0.5940580732570947</v>
+        <v>0.5940580732570949</v>
       </c>
       <c r="K21">
         <v>0.5834683135843971</v>
       </c>
       <c r="L21">
-        <v>0.628054626399263</v>
+        <v>0.6280546263992632</v>
       </c>
       <c r="M21">
-        <v>0.6361888097585527</v>
+        <v>0.6361888097585529</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.5131154988556097</v>
+        <v>0.5131154988556098</v>
       </c>
       <c r="D22">
-        <v>0.5508701124794921</v>
+        <v>0.5508701124794922</v>
       </c>
       <c r="E22">
-        <v>0.5995153895173821</v>
+        <v>0.5995153895173824</v>
       </c>
       <c r="F22">
-        <v>0.608279365922254</v>
+        <v>0.6082793659222542</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9514474925917106</v>
+        <v>0.9514474925917111</v>
       </c>
       <c r="J22">
-        <v>0.5940580732570947</v>
+        <v>0.5940580732570949</v>
       </c>
       <c r="K22">
         <v>0.5834683135843971</v>
       </c>
       <c r="L22">
-        <v>0.628054626399263</v>
+        <v>0.6280546263992632</v>
       </c>
       <c r="M22">
-        <v>0.6361888097585527</v>
+        <v>0.6361888097585529</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.5131154988556097</v>
+        <v>0.5131154988556098</v>
       </c>
       <c r="D23">
-        <v>0.5508701124794921</v>
+        <v>0.5508701124794922</v>
       </c>
       <c r="E23">
-        <v>0.5995153895173821</v>
+        <v>0.5995153895173824</v>
       </c>
       <c r="F23">
-        <v>0.608279365922254</v>
+        <v>0.6082793659222542</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9514474925917106</v>
+        <v>0.9514474925917111</v>
       </c>
       <c r="J23">
-        <v>0.5940580732570947</v>
+        <v>0.5940580732570949</v>
       </c>
       <c r="K23">
         <v>0.5834683135843971</v>
       </c>
       <c r="L23">
-        <v>0.628054626399263</v>
+        <v>0.6280546263992632</v>
       </c>
       <c r="M23">
-        <v>0.6361888097585527</v>
+        <v>0.6361888097585529</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.5131154988556097</v>
+        <v>0.5131154988556098</v>
       </c>
       <c r="D24">
-        <v>0.5508701124794921</v>
+        <v>0.5508701124794922</v>
       </c>
       <c r="E24">
-        <v>0.5995153895173821</v>
+        <v>0.5995153895173824</v>
       </c>
       <c r="F24">
-        <v>0.608279365922254</v>
+        <v>0.6082793659222542</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9514474925917106</v>
+        <v>0.9514474925917111</v>
       </c>
       <c r="J24">
-        <v>0.5940580732570947</v>
+        <v>0.5940580732570949</v>
       </c>
       <c r="K24">
         <v>0.5834683135843971</v>
       </c>
       <c r="L24">
-        <v>0.628054626399263</v>
+        <v>0.6280546263992632</v>
       </c>
       <c r="M24">
-        <v>0.6361888097585527</v>
+        <v>0.6361888097585529</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.5131154988556097</v>
+        <v>0.5131154988556098</v>
       </c>
       <c r="D25">
-        <v>0.5508701124794921</v>
+        <v>0.5508701124794922</v>
       </c>
       <c r="E25">
-        <v>0.5995153895173821</v>
+        <v>0.5995153895173824</v>
       </c>
       <c r="F25">
-        <v>0.608279365922254</v>
+        <v>0.6082793659222542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9514474925917106</v>
+        <v>0.9514474925917111</v>
       </c>
       <c r="J25">
-        <v>0.5940580732570947</v>
+        <v>0.5940580732570949</v>
       </c>
       <c r="K25">
         <v>0.5834683135843971</v>
       </c>
       <c r="L25">
-        <v>0.628054626399263</v>
+        <v>0.6280546263992632</v>
       </c>
       <c r="M25">
-        <v>0.6361888097585527</v>
+        <v>0.6361888097585529</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8998670894174419</v>
+        <v>0.8998670894174421</v>
       </c>
       <c r="D2">
         <v>0.9094949393888939</v>
       </c>
       <c r="E2">
-        <v>0.9193802810736555</v>
+        <v>0.9193802810736559</v>
       </c>
       <c r="F2">
-        <v>0.9267732806054608</v>
+        <v>0.9267732806054609</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.02814691934966</v>
       </c>
       <c r="J2">
-        <v>0.925519241116816</v>
+        <v>0.9255192411168162</v>
       </c>
       <c r="K2">
-        <v>0.92237785151707</v>
+        <v>0.9223778515170701</v>
       </c>
       <c r="L2">
-        <v>0.9320900725454254</v>
+        <v>0.9320900725454256</v>
       </c>
       <c r="M2">
-        <v>0.9393567143539076</v>
+        <v>0.9393567143539078</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9238378047014254</v>
+        <v>0.9238378047014244</v>
       </c>
       <c r="D3">
-        <v>0.9324138890738267</v>
+        <v>0.9324138890738257</v>
       </c>
       <c r="E3">
-        <v>0.9401339277690601</v>
+        <v>0.9401339277690595</v>
       </c>
       <c r="F3">
-        <v>0.9480922288432402</v>
+        <v>0.9480922288432393</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033336063250188</v>
+        <v>1.033336063250187</v>
       </c>
       <c r="J3">
-        <v>0.9466444473517341</v>
+        <v>0.9466444473517333</v>
       </c>
       <c r="K3">
-        <v>0.9439913925172915</v>
+        <v>0.9439913925172905</v>
       </c>
       <c r="L3">
-        <v>0.9515947940415505</v>
+        <v>0.9515947940415497</v>
       </c>
       <c r="M3">
-        <v>0.9594353819641025</v>
+        <v>0.9594353819641019</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9378584819660465</v>
+        <v>0.937858481966045</v>
       </c>
       <c r="D4">
-        <v>0.9458352105467155</v>
+        <v>0.9458352105467142</v>
       </c>
       <c r="E4">
-        <v>0.9522895209099391</v>
+        <v>0.9522895209099377</v>
       </c>
       <c r="F4">
-        <v>0.960590251871259</v>
+        <v>0.9605902518712579</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.036347741799194</v>
       </c>
       <c r="J4">
-        <v>0.9589973934828978</v>
+        <v>0.9589973934828964</v>
       </c>
       <c r="K4">
-        <v>0.9566345202983298</v>
+        <v>0.9566345202983285</v>
       </c>
       <c r="L4">
-        <v>0.9630000475674488</v>
+        <v>0.9630000475674474</v>
       </c>
       <c r="M4">
-        <v>0.9711887997095928</v>
+        <v>0.9711887997095917</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9434605731520124</v>
+        <v>0.9434605731520134</v>
       </c>
       <c r="D5">
-        <v>0.9512008584917925</v>
+        <v>0.9512008584917939</v>
       </c>
       <c r="E5">
-        <v>0.957149356724652</v>
+        <v>0.9571493567246528</v>
       </c>
       <c r="F5">
-        <v>0.9655888844045252</v>
+        <v>0.9655888844045259</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037544483825026</v>
+        <v>1.037544483825027</v>
       </c>
       <c r="J5">
-        <v>0.9639316605558819</v>
+        <v>0.9639316605558828</v>
       </c>
       <c r="K5">
-        <v>0.9616858020469785</v>
+        <v>0.9616858020469795</v>
       </c>
       <c r="L5">
-        <v>0.9675556282164604</v>
+        <v>0.9675556282164611</v>
       </c>
       <c r="M5">
-        <v>0.9758856185323869</v>
+        <v>0.9758856185323876</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9443855514877625</v>
+        <v>0.944385551487764</v>
       </c>
       <c r="D6">
-        <v>0.9520869578242807</v>
+        <v>0.9520869578242823</v>
       </c>
       <c r="E6">
-        <v>0.957951929113804</v>
+        <v>0.9579519291138054</v>
       </c>
       <c r="F6">
-        <v>0.966414470081145</v>
+        <v>0.9664144700811463</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.037741668774216</v>
       </c>
       <c r="J6">
-        <v>0.9647462705605492</v>
+        <v>0.9647462705605507</v>
       </c>
       <c r="K6">
-        <v>0.962519795220146</v>
+        <v>0.9625197952201477</v>
       </c>
       <c r="L6">
-        <v>0.9683077092196988</v>
+        <v>0.9683077092197003</v>
       </c>
       <c r="M6">
-        <v>0.9766611244243979</v>
+        <v>0.976661124424399</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9379344155633361</v>
+        <v>0.9379344155633352</v>
       </c>
       <c r="D7">
-        <v>0.9459079279657091</v>
+        <v>0.9459079279657079</v>
       </c>
       <c r="E7">
-        <v>0.9523553828990442</v>
+        <v>0.9523553828990434</v>
       </c>
       <c r="F7">
-        <v>0.960657988225138</v>
+        <v>0.960657988225137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03636399060703</v>
+        <v>1.036363990607029</v>
       </c>
       <c r="J7">
-        <v>0.9590642816560383</v>
+        <v>0.9590642816560371</v>
       </c>
       <c r="K7">
-        <v>0.9567029902875678</v>
+        <v>0.9567029902875667</v>
       </c>
       <c r="L7">
-        <v>0.9630618030043431</v>
+        <v>0.9630618030043421</v>
       </c>
       <c r="M7">
-        <v>0.9712524620191101</v>
+        <v>0.9712524620191092</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,22 +649,22 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9083232224534754</v>
+        <v>0.9083232224534753</v>
       </c>
       <c r="D8">
         <v>0.917575949609835</v>
       </c>
       <c r="E8">
-        <v>0.9266970599090583</v>
+        <v>0.9266970599090588</v>
       </c>
       <c r="F8">
-        <v>0.9342862225523775</v>
+        <v>0.9342862225523776</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029981965983322</v>
+        <v>1.029981965983321</v>
       </c>
       <c r="J8">
         <v>0.9329717998888274</v>
@@ -673,10 +673,10 @@
         <v>0.9300016566161726</v>
       </c>
       <c r="L8">
-        <v>0.9389708925484589</v>
+        <v>0.9389708925484594</v>
       </c>
       <c r="M8">
-        <v>0.9464365892373346</v>
+        <v>0.9464365892373348</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8397188624172293</v>
+        <v>0.8397188624172317</v>
       </c>
       <c r="D9">
-        <v>0.8521627224791218</v>
+        <v>0.8521627224791246</v>
       </c>
       <c r="E9">
-        <v>0.8675120375202564</v>
+        <v>0.8675120375202583</v>
       </c>
       <c r="F9">
-        <v>0.8736426170363395</v>
+        <v>0.8736426170363414</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015050947027663</v>
+        <v>1.015050947027664</v>
       </c>
       <c r="J9">
-        <v>0.8725508327992002</v>
+        <v>0.8725508327992025</v>
       </c>
       <c r="K9">
-        <v>0.8682163715071286</v>
+        <v>0.868216371507131</v>
       </c>
       <c r="L9">
-        <v>0.8831953362628113</v>
+        <v>0.8831953362628132</v>
       </c>
       <c r="M9">
-        <v>0.8891828570967969</v>
+        <v>0.8891828570967989</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7642992241132748</v>
+        <v>0.764299224113277</v>
       </c>
       <c r="D10">
-        <v>0.7807386215334572</v>
+        <v>0.7807386215334594</v>
       </c>
       <c r="E10">
-        <v>0.8030770738444923</v>
+        <v>0.8030770738444946</v>
       </c>
       <c r="F10">
-        <v>0.8080838649258102</v>
+        <v>0.8080838649258124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9988457036311731</v>
+        <v>0.9988457036311739</v>
       </c>
       <c r="J10">
-        <v>0.8064322142700004</v>
+        <v>0.8064322142700023</v>
       </c>
       <c r="K10">
-        <v>0.8006404029799696</v>
+        <v>0.8006404029799721</v>
       </c>
       <c r="L10">
-        <v>0.82222257345257</v>
+        <v>0.8222225734525721</v>
       </c>
       <c r="M10">
-        <v>0.8270677919454534</v>
+        <v>0.8270677919454557</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6888835284410502</v>
+        <v>0.6888835284410412</v>
       </c>
       <c r="D11">
-        <v>0.7100557279123659</v>
+        <v>0.7100557279123577</v>
       </c>
       <c r="E11">
-        <v>0.7396600859728696</v>
+        <v>0.7396600859728618</v>
       </c>
       <c r="F11">
-        <v>0.7442928757967094</v>
+        <v>0.7442928757967021</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9832884436432624</v>
+        <v>0.9832884436432605</v>
       </c>
       <c r="J11">
-        <v>0.7409866491562164</v>
+        <v>0.7409866491562086</v>
       </c>
       <c r="K11">
-        <v>0.7337531811657918</v>
+        <v>0.733753181165784</v>
       </c>
       <c r="L11">
-        <v>0.7620074428939509</v>
+        <v>0.7620074428939436</v>
       </c>
       <c r="M11">
-        <v>0.7664427607633093</v>
+        <v>0.7664427607633025</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6888835284410502</v>
+        <v>0.6888835284410412</v>
       </c>
       <c r="D12">
-        <v>0.7100557279123659</v>
+        <v>0.7100557279123577</v>
       </c>
       <c r="E12">
-        <v>0.7396600859728696</v>
+        <v>0.7396600859728618</v>
       </c>
       <c r="F12">
-        <v>0.7442928757967094</v>
+        <v>0.7442928757967021</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9832884436432624</v>
+        <v>0.9832884436432605</v>
       </c>
       <c r="J12">
-        <v>0.7409866491562164</v>
+        <v>0.7409866491562086</v>
       </c>
       <c r="K12">
-        <v>0.7337531811657918</v>
+        <v>0.733753181165784</v>
       </c>
       <c r="L12">
-        <v>0.7620074428939509</v>
+        <v>0.7620074428939436</v>
       </c>
       <c r="M12">
-        <v>0.7664427607633093</v>
+        <v>0.7664427607633025</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6888835284410502</v>
+        <v>0.6888835284410412</v>
       </c>
       <c r="D13">
-        <v>0.7100557279123659</v>
+        <v>0.7100557279123577</v>
       </c>
       <c r="E13">
-        <v>0.7396600859728696</v>
+        <v>0.7396600859728618</v>
       </c>
       <c r="F13">
-        <v>0.7442928757967094</v>
+        <v>0.7442928757967021</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9832884436432624</v>
+        <v>0.9832884436432605</v>
       </c>
       <c r="J13">
-        <v>0.7409866491562164</v>
+        <v>0.7409866491562086</v>
       </c>
       <c r="K13">
-        <v>0.7337531811657918</v>
+        <v>0.733753181165784</v>
       </c>
       <c r="L13">
-        <v>0.7620074428939509</v>
+        <v>0.7620074428939436</v>
       </c>
       <c r="M13">
-        <v>0.7664427607633093</v>
+        <v>0.7664427607633025</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6343015927072008</v>
+        <v>0.6343015927068576</v>
       </c>
       <c r="D14">
-        <v>0.659564333307916</v>
+        <v>0.6595643333075988</v>
       </c>
       <c r="E14">
-        <v>0.6946928179940237</v>
+        <v>0.6946928179937415</v>
       </c>
       <c r="F14">
-        <v>0.6997059591974579</v>
+        <v>0.6997059591971783</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9726321071970433</v>
+        <v>0.9726321071969766</v>
       </c>
       <c r="J14">
-        <v>0.6942913289793784</v>
+        <v>0.6942913289790851</v>
       </c>
       <c r="K14">
-        <v>0.6860139103950007</v>
+        <v>0.6860139103947008</v>
       </c>
       <c r="L14">
-        <v>0.719187291153733</v>
+        <v>0.7191872911534642</v>
       </c>
       <c r="M14">
-        <v>0.7239444966018662</v>
+        <v>0.7239444966015997</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6088384889083482</v>
+        <v>0.6088384889083466</v>
       </c>
       <c r="D15">
-        <v>0.6362672648361529</v>
+        <v>0.6362672648361514</v>
       </c>
       <c r="E15">
-        <v>0.6740739332206982</v>
+        <v>0.6740739332206966</v>
       </c>
       <c r="F15">
-        <v>0.6795021453739718</v>
+        <v>0.6795021453739702</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9678734102478723</v>
+        <v>0.9678734102478717</v>
       </c>
       <c r="J15">
-        <v>0.6727720532010637</v>
+        <v>0.6727720532010624</v>
       </c>
       <c r="K15">
-        <v>0.6640066809856427</v>
+        <v>0.6640066809856412</v>
       </c>
       <c r="L15">
-        <v>0.6995128267184522</v>
+        <v>0.6995128267184507</v>
       </c>
       <c r="M15">
-        <v>0.7046412028223024</v>
+        <v>0.7046412028223009</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.5394058362302353</v>
+        <v>0.5394058362302345</v>
       </c>
       <c r="D16">
-        <v>0.5738978227089798</v>
+        <v>0.5738978227089792</v>
       </c>
       <c r="E16">
-        <v>0.6194273490587311</v>
+        <v>0.6194273490587304</v>
       </c>
       <c r="F16">
-        <v>0.626954794097564</v>
+        <v>0.6269547940975635</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.9557060429631991</v>
       </c>
       <c r="J16">
-        <v>0.6152600679263444</v>
+        <v>0.6152600679263437</v>
       </c>
       <c r="K16">
-        <v>0.6051667536318515</v>
+        <v>0.6051667536318509</v>
       </c>
       <c r="L16">
-        <v>0.6472014326257824</v>
+        <v>0.6472014326257819</v>
       </c>
       <c r="M16">
-        <v>0.6542227724597315</v>
+        <v>0.6542227724597309</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.5102150966559053</v>
+        <v>0.5102150966559056</v>
       </c>
       <c r="D17">
-        <v>0.5483547255275646</v>
+        <v>0.5483547255275647</v>
       </c>
       <c r="E17">
-        <v>0.5973510074920942</v>
+        <v>0.5973510074920947</v>
       </c>
       <c r="F17">
-        <v>0.6062683975484964</v>
+        <v>0.6062683975484965</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9509905767683212</v>
+        <v>0.9509905767683209</v>
       </c>
       <c r="J17">
-        <v>0.5917427545084387</v>
+        <v>0.5917427545084388</v>
       </c>
       <c r="K17">
-        <v>0.5810986988401946</v>
+        <v>0.5810986988401948</v>
       </c>
       <c r="L17">
-        <v>0.6259696382312098</v>
+        <v>0.6259696382312099</v>
       </c>
       <c r="M17">
-        <v>0.6342416858329023</v>
+        <v>0.6342416858329026</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.495171334958083</v>
+        <v>0.4951713349580826</v>
       </c>
       <c r="D18">
-        <v>0.5353977224767035</v>
+        <v>0.535397722476703</v>
       </c>
       <c r="E18">
-        <v>0.5862387687077851</v>
+        <v>0.586238768707785</v>
       </c>
       <c r="F18">
-        <v>0.5960092365711878</v>
+        <v>0.5960092365711875</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9486636019761268</v>
+        <v>0.9486636019761269</v>
       </c>
       <c r="J18">
-        <v>0.5798170792206757</v>
+        <v>0.5798170792206753</v>
       </c>
       <c r="K18">
-        <v>0.5688934891769626</v>
+        <v>0.5688934891769621</v>
       </c>
       <c r="L18">
-        <v>0.6152513133215118</v>
+        <v>0.6152513133215117</v>
       </c>
       <c r="M18">
-        <v>0.6242891961513179</v>
+        <v>0.6242891961513177</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.4902849709826901</v>
+        <v>0.4902849709826898</v>
       </c>
       <c r="D19">
-        <v>0.5312236033554246</v>
+        <v>0.5312236033554244</v>
       </c>
       <c r="E19">
         <v>0.5826727251519266</v>
       </c>
       <c r="F19">
-        <v>0.5927415558486759</v>
+        <v>0.5927415558486758</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>0.9479236298021199</v>
       </c>
       <c r="J19">
-        <v>0.5759751656946244</v>
+        <v>0.5759751656946241</v>
       </c>
       <c r="K19">
-        <v>0.5649616639664533</v>
+        <v>0.564961663966453</v>
       </c>
       <c r="L19">
-        <v>0.6118063732031588</v>
+        <v>0.6118063732031587</v>
       </c>
       <c r="M19">
-        <v>0.6211118127410316</v>
+        <v>0.6211118127410311</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.5131154988556098</v>
+        <v>0.5131154988556097</v>
       </c>
       <c r="D20">
-        <v>0.5508701124794922</v>
+        <v>0.5508701124794921</v>
       </c>
       <c r="E20">
-        <v>0.5995153895173824</v>
+        <v>0.5995153895173821</v>
       </c>
       <c r="F20">
-        <v>0.6082793659222542</v>
+        <v>0.608279365922254</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9514474925917111</v>
+        <v>0.9514474925917106</v>
       </c>
       <c r="J20">
-        <v>0.5940580732570949</v>
+        <v>0.5940580732570947</v>
       </c>
       <c r="K20">
         <v>0.5834683135843971</v>
       </c>
       <c r="L20">
-        <v>0.6280546263992632</v>
+        <v>0.628054626399263</v>
       </c>
       <c r="M20">
-        <v>0.6361888097585529</v>
+        <v>0.6361888097585527</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.5131154988556098</v>
+        <v>0.5131154988556097</v>
       </c>
       <c r="D21">
-        <v>0.5508701124794922</v>
+        <v>0.5508701124794921</v>
       </c>
       <c r="E21">
-        <v>0.5995153895173824</v>
+        <v>0.5995153895173821</v>
       </c>
       <c r="F21">
-        <v>0.6082793659222542</v>
+        <v>0.608279365922254</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9514474925917111</v>
+        <v>0.9514474925917106</v>
       </c>
       <c r="J21">
-        <v>0.5940580732570949</v>
+        <v>0.5940580732570947</v>
       </c>
       <c r="K21">
         <v>0.5834683135843971</v>
       </c>
       <c r="L21">
-        <v>0.6280546263992632</v>
+        <v>0.628054626399263</v>
       </c>
       <c r="M21">
-        <v>0.6361888097585529</v>
+        <v>0.6361888097585527</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.5131154988556098</v>
+        <v>0.5131154988556097</v>
       </c>
       <c r="D22">
-        <v>0.5508701124794922</v>
+        <v>0.5508701124794921</v>
       </c>
       <c r="E22">
-        <v>0.5995153895173824</v>
+        <v>0.5995153895173821</v>
       </c>
       <c r="F22">
-        <v>0.6082793659222542</v>
+        <v>0.608279365922254</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9514474925917111</v>
+        <v>0.9514474925917106</v>
       </c>
       <c r="J22">
-        <v>0.5940580732570949</v>
+        <v>0.5940580732570947</v>
       </c>
       <c r="K22">
         <v>0.5834683135843971</v>
       </c>
       <c r="L22">
-        <v>0.6280546263992632</v>
+        <v>0.628054626399263</v>
       </c>
       <c r="M22">
-        <v>0.6361888097585529</v>
+        <v>0.6361888097585527</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.5131154988556098</v>
+        <v>0.5131154988556097</v>
       </c>
       <c r="D23">
-        <v>0.5508701124794922</v>
+        <v>0.5508701124794921</v>
       </c>
       <c r="E23">
-        <v>0.5995153895173824</v>
+        <v>0.5995153895173821</v>
       </c>
       <c r="F23">
-        <v>0.6082793659222542</v>
+        <v>0.608279365922254</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9514474925917111</v>
+        <v>0.9514474925917106</v>
       </c>
       <c r="J23">
-        <v>0.5940580732570949</v>
+        <v>0.5940580732570947</v>
       </c>
       <c r="K23">
         <v>0.5834683135843971</v>
       </c>
       <c r="L23">
-        <v>0.6280546263992632</v>
+        <v>0.628054626399263</v>
       </c>
       <c r="M23">
-        <v>0.6361888097585529</v>
+        <v>0.6361888097585527</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.5131154988556098</v>
+        <v>0.5131154988556097</v>
       </c>
       <c r="D24">
-        <v>0.5508701124794922</v>
+        <v>0.5508701124794921</v>
       </c>
       <c r="E24">
-        <v>0.5995153895173824</v>
+        <v>0.5995153895173821</v>
       </c>
       <c r="F24">
-        <v>0.6082793659222542</v>
+        <v>0.608279365922254</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9514474925917111</v>
+        <v>0.9514474925917106</v>
       </c>
       <c r="J24">
-        <v>0.5940580732570949</v>
+        <v>0.5940580732570947</v>
       </c>
       <c r="K24">
         <v>0.5834683135843971</v>
       </c>
       <c r="L24">
-        <v>0.6280546263992632</v>
+        <v>0.628054626399263</v>
       </c>
       <c r="M24">
-        <v>0.6361888097585529</v>
+        <v>0.6361888097585527</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.5131154988556098</v>
+        <v>0.5131154988556097</v>
       </c>
       <c r="D25">
-        <v>0.5508701124794922</v>
+        <v>0.5508701124794921</v>
       </c>
       <c r="E25">
-        <v>0.5995153895173824</v>
+        <v>0.5995153895173821</v>
       </c>
       <c r="F25">
-        <v>0.6082793659222542</v>
+        <v>0.608279365922254</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9514474925917111</v>
+        <v>0.9514474925917106</v>
       </c>
       <c r="J25">
-        <v>0.5940580732570949</v>
+        <v>0.5940580732570947</v>
       </c>
       <c r="K25">
         <v>0.5834683135843971</v>
       </c>
       <c r="L25">
-        <v>0.6280546263992632</v>
+        <v>0.628054626399263</v>
       </c>
       <c r="M25">
-        <v>0.6361888097585529</v>
+        <v>0.6361888097585527</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8998670894174421</v>
+        <v>0.9048787851343879</v>
       </c>
       <c r="D2">
-        <v>0.9094949393888939</v>
+        <v>0.9144316547918474</v>
       </c>
       <c r="E2">
-        <v>0.9193802810736559</v>
+        <v>0.9236710889964742</v>
       </c>
       <c r="F2">
-        <v>0.9267732806054609</v>
+        <v>0.9307961045941443</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02814691934966</v>
+        <v>1.029150012410258</v>
       </c>
       <c r="J2">
-        <v>0.9255192411168162</v>
+        <v>0.9303312398035281</v>
       </c>
       <c r="K2">
-        <v>0.9223778515170701</v>
+        <v>0.9272275047454666</v>
       </c>
       <c r="L2">
-        <v>0.9320900725454256</v>
+        <v>0.9363072258242712</v>
       </c>
       <c r="M2">
-        <v>0.9393567143539078</v>
+        <v>0.9433118688757058</v>
+      </c>
+      <c r="N2">
+        <v>0.9316524168745335</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9238378047014244</v>
+        <v>0.9286460142266566</v>
       </c>
       <c r="D3">
-        <v>0.9324138890738257</v>
+        <v>0.9371643357342474</v>
       </c>
       <c r="E3">
-        <v>0.9401339277690595</v>
+        <v>0.9442560067242955</v>
       </c>
       <c r="F3">
-        <v>0.9480922288432393</v>
+        <v>0.9519396890711044</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033336063250187</v>
+        <v>1.034297725210208</v>
       </c>
       <c r="J3">
-        <v>0.9466444473517333</v>
+        <v>0.9512907796804442</v>
       </c>
       <c r="K3">
-        <v>0.9439913925172905</v>
+        <v>0.9486697780927208</v>
       </c>
       <c r="L3">
-        <v>0.9515947940415497</v>
+        <v>0.9556555876033324</v>
       </c>
       <c r="M3">
-        <v>0.9594353819641019</v>
+        <v>0.9632268282105386</v>
+      </c>
+      <c r="N3">
+        <v>0.9526417217021682</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.937858481966045</v>
+        <v>0.9425688039543572</v>
       </c>
       <c r="D4">
-        <v>0.9458352105467142</v>
+        <v>0.950496386468062</v>
       </c>
       <c r="E4">
-        <v>0.9522895209099377</v>
+        <v>0.9563305554202048</v>
       </c>
       <c r="F4">
-        <v>0.9605902518712579</v>
+        <v>0.9643526598186063</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036347741799194</v>
+        <v>1.037289458048763</v>
       </c>
       <c r="J4">
-        <v>0.9589973934828964</v>
+        <v>0.9635651435007583</v>
       </c>
       <c r="K4">
-        <v>0.9566345202983285</v>
+        <v>0.9612314264565462</v>
       </c>
       <c r="L4">
-        <v>0.9630000475674474</v>
+        <v>0.9669862622613595</v>
       </c>
       <c r="M4">
-        <v>0.9711887997095917</v>
+        <v>0.9749012484110161</v>
+      </c>
+      <c r="N4">
+        <v>0.9649335165269963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9434605731520134</v>
+        <v>0.948135537739025</v>
       </c>
       <c r="D5">
-        <v>0.9512008584917939</v>
+        <v>0.9558298650145644</v>
       </c>
       <c r="E5">
-        <v>0.9571493567246528</v>
+        <v>0.9611611522059129</v>
       </c>
       <c r="F5">
-        <v>0.9655888844045259</v>
+        <v>0.9693204309896718</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037544483825027</v>
+        <v>1.03847900185604</v>
       </c>
       <c r="J5">
-        <v>0.9639316605558828</v>
+        <v>0.9684712754168482</v>
       </c>
       <c r="K5">
-        <v>0.9616858020469795</v>
+        <v>0.9662534815171925</v>
       </c>
       <c r="L5">
-        <v>0.9675556282164611</v>
+        <v>0.9715150539789174</v>
       </c>
       <c r="M5">
-        <v>0.9758856185323876</v>
+        <v>0.9795694926532681</v>
+      </c>
+      <c r="N5">
+        <v>0.9698466157131481</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.944385551487764</v>
+        <v>0.9490548711564837</v>
       </c>
       <c r="D6">
-        <v>0.9520869578242823</v>
+        <v>0.9567108327897141</v>
       </c>
       <c r="E6">
-        <v>0.9579519291138054</v>
+        <v>0.9619590586755999</v>
       </c>
       <c r="F6">
-        <v>0.9664144700811463</v>
+        <v>0.9701410818499234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037741668774216</v>
+        <v>1.03867503822097</v>
       </c>
       <c r="J6">
-        <v>0.9647462705605507</v>
+        <v>0.9692814079728803</v>
       </c>
       <c r="K6">
-        <v>0.9625197952201477</v>
+        <v>0.9670828203732182</v>
       </c>
       <c r="L6">
-        <v>0.9683077092197003</v>
+        <v>0.9722628668501004</v>
       </c>
       <c r="M6">
-        <v>0.976661124424399</v>
+        <v>0.9803404345853588</v>
+      </c>
+      <c r="N6">
+        <v>0.9706578987503334</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9379344155633352</v>
+        <v>0.9426442446104328</v>
       </c>
       <c r="D7">
-        <v>0.9459079279657079</v>
+        <v>0.9505686550828408</v>
       </c>
       <c r="E7">
-        <v>0.9523553828990434</v>
+        <v>0.9563960096185694</v>
       </c>
       <c r="F7">
-        <v>0.960657988225137</v>
+        <v>0.9644199664659105</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036363990607029</v>
+        <v>1.037305606462907</v>
       </c>
       <c r="J7">
-        <v>0.9590642816560371</v>
+        <v>0.9636316384062222</v>
       </c>
       <c r="K7">
-        <v>0.9567029902875667</v>
+        <v>0.9612994881439881</v>
       </c>
       <c r="L7">
-        <v>0.9630618030043421</v>
+        <v>0.9670476435986708</v>
       </c>
       <c r="M7">
-        <v>0.9712524620191092</v>
+        <v>0.974964512488806</v>
+      </c>
+      <c r="N7">
+        <v>0.9650001058628532</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9083232224534753</v>
+        <v>0.9132573671888526</v>
       </c>
       <c r="D8">
-        <v>0.917575949609835</v>
+        <v>0.9224415876292746</v>
       </c>
       <c r="E8">
-        <v>0.9266970599090588</v>
+        <v>0.9309235367273669</v>
       </c>
       <c r="F8">
-        <v>0.9342862225523776</v>
+        <v>0.9382424108489035</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029981965983321</v>
+        <v>1.030969281198912</v>
       </c>
       <c r="J8">
-        <v>0.9329717998888274</v>
+        <v>0.937720365467976</v>
       </c>
       <c r="K8">
-        <v>0.9300016566161726</v>
+        <v>0.9347857961966505</v>
       </c>
       <c r="L8">
-        <v>0.9389708925484594</v>
+        <v>0.9431282909843772</v>
       </c>
       <c r="M8">
-        <v>0.9464365892373348</v>
+        <v>0.950329430402123</v>
+      </c>
+      <c r="N8">
+        <v>0.9390520359449698</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8397188624172317</v>
+        <v>0.8455413033325559</v>
       </c>
       <c r="D9">
-        <v>0.8521627224791246</v>
+        <v>0.8578457932840482</v>
       </c>
       <c r="E9">
-        <v>0.8675120375202583</v>
+        <v>0.8724756792915239</v>
       </c>
       <c r="F9">
-        <v>0.8736426170363414</v>
+        <v>0.8783529366494387</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015050947027664</v>
+        <v>1.01621773895076</v>
       </c>
       <c r="J9">
-        <v>0.8725508327992025</v>
+        <v>0.8780374446624186</v>
       </c>
       <c r="K9">
-        <v>0.868216371507131</v>
+        <v>0.873760243027486</v>
       </c>
       <c r="L9">
-        <v>0.8831953362628132</v>
+        <v>0.8880429429357019</v>
       </c>
       <c r="M9">
-        <v>0.8891828570967989</v>
+        <v>0.893785070791825</v>
+      </c>
+      <c r="N9">
+        <v>0.8792843585461417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.764299224113277</v>
+        <v>0.7725773170191421</v>
       </c>
       <c r="D10">
-        <v>0.7807386215334594</v>
+        <v>0.7886917358809135</v>
       </c>
       <c r="E10">
-        <v>0.8030770738444946</v>
+        <v>0.8100742043672936</v>
       </c>
       <c r="F10">
-        <v>0.8080838649258124</v>
+        <v>0.8148358059281341</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9988457036311739</v>
+        <v>1.000499932628705</v>
       </c>
       <c r="J10">
-        <v>0.8064322142700023</v>
+        <v>0.8140001520708184</v>
       </c>
       <c r="K10">
-        <v>0.8006404029799721</v>
+        <v>0.8083174068337511</v>
       </c>
       <c r="L10">
-        <v>0.8222225734525721</v>
+        <v>0.8289946694851036</v>
       </c>
       <c r="M10">
-        <v>0.8270677919454557</v>
+        <v>0.8336061853211882</v>
+      </c>
+      <c r="N10">
+        <v>0.8151561256538816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6888835284410412</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D11">
-        <v>0.7100557279123577</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E11">
-        <v>0.7396600859728618</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F11">
-        <v>0.7442928757967021</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9832884436432605</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J11">
-        <v>0.7409866491562086</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K11">
-        <v>0.733753181165784</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L11">
-        <v>0.7620074428939436</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M11">
-        <v>0.7664427607633025</v>
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N11">
+        <v>0.7593698645215985</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6888835284410412</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D12">
-        <v>0.7100557279123577</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E12">
-        <v>0.7396600859728618</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F12">
-        <v>0.7442928757967021</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9832884436432605</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J12">
-        <v>0.7409866491562086</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K12">
-        <v>0.733753181165784</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L12">
-        <v>0.7620074428939436</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M12">
-        <v>0.7664427607633025</v>
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N12">
+        <v>0.7593698645215985</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6888835284410412</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D13">
-        <v>0.7100557279123577</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E13">
-        <v>0.7396600859728618</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F13">
-        <v>0.7442928757967021</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9832884436432605</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J13">
-        <v>0.7409866491562086</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K13">
-        <v>0.733753181165784</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L13">
-        <v>0.7620074428939436</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M13">
-        <v>0.7664427607633025</v>
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N13">
+        <v>0.7593698645215985</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6343015927068576</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D14">
-        <v>0.6595643333075988</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E14">
-        <v>0.6946928179937415</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F14">
-        <v>0.6997059591971783</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9726321071969766</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J14">
-        <v>0.6942913289790851</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K14">
-        <v>0.6860139103947008</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L14">
-        <v>0.7191872911534642</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M14">
-        <v>0.7239444966015997</v>
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N14">
+        <v>0.7593698645215985</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6088384889083466</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D15">
-        <v>0.6362672648361514</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E15">
-        <v>0.6740739332206966</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F15">
-        <v>0.6795021453739702</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9678734102478717</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J15">
-        <v>0.6727720532010624</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K15">
-        <v>0.6640066809856412</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L15">
-        <v>0.6995128267184507</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M15">
-        <v>0.7046412028223009</v>
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N15">
+        <v>0.7593698645215985</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.5394058362302345</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D16">
-        <v>0.5738978227089792</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E16">
-        <v>0.6194273490587304</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F16">
-        <v>0.6269547940975635</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9557060429631991</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J16">
-        <v>0.6152600679263437</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K16">
-        <v>0.6051667536318509</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L16">
-        <v>0.6472014326257819</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M16">
-        <v>0.6542227724597309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N16">
+        <v>0.7593698645215985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.5102150966559056</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D17">
-        <v>0.5483547255275647</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E17">
-        <v>0.5973510074920947</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F17">
-        <v>0.6062683975484965</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9509905767683209</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J17">
-        <v>0.5917427545084388</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K17">
-        <v>0.5810986988401948</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L17">
-        <v>0.6259696382312099</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M17">
-        <v>0.6342416858329026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N17">
+        <v>0.7593698645215985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.4951713349580826</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D18">
-        <v>0.535397722476703</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E18">
-        <v>0.586238768707785</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F18">
-        <v>0.5960092365711875</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9486636019761269</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J18">
-        <v>0.5798170792206753</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K18">
-        <v>0.5688934891769621</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L18">
-        <v>0.6152513133215117</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M18">
-        <v>0.6242891961513177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N18">
+        <v>0.7593698645215985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.4902849709826898</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D19">
-        <v>0.5312236033554244</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E19">
-        <v>0.5826727251519266</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F19">
-        <v>0.5927415558486758</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9479236298021199</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J19">
-        <v>0.5759751656946241</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K19">
-        <v>0.564961663966453</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L19">
-        <v>0.6118063732031587</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M19">
-        <v>0.6211118127410311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N19">
+        <v>0.7593698645215985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.5131154988556097</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D20">
-        <v>0.5508701124794921</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E20">
-        <v>0.5995153895173821</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F20">
-        <v>0.608279365922254</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9514474925917106</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J20">
-        <v>0.5940580732570947</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K20">
-        <v>0.5834683135843971</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L20">
-        <v>0.628054626399263</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M20">
-        <v>0.6361888097585527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N20">
+        <v>0.7593698645215985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.5131154988556097</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D21">
-        <v>0.5508701124794921</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E21">
-        <v>0.5995153895173821</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F21">
-        <v>0.608279365922254</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9514474925917106</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J21">
-        <v>0.5940580732570947</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K21">
-        <v>0.5834683135843971</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L21">
-        <v>0.628054626399263</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M21">
-        <v>0.6361888097585527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N21">
+        <v>0.7593698645215985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.5131154988556097</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D22">
-        <v>0.5508701124794921</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E22">
-        <v>0.5995153895173821</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F22">
-        <v>0.608279365922254</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9514474925917106</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J22">
-        <v>0.5940580732570947</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K22">
-        <v>0.5834683135843971</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L22">
-        <v>0.628054626399263</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M22">
-        <v>0.6361888097585527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N22">
+        <v>0.7593698645215985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.5131154988556097</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D23">
-        <v>0.5508701124794921</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E23">
-        <v>0.5995153895173821</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F23">
-        <v>0.608279365922254</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9514474925917106</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J23">
-        <v>0.5940580732570947</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K23">
-        <v>0.5834683135843971</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L23">
-        <v>0.628054626399263</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M23">
-        <v>0.6361888097585527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N23">
+        <v>0.7593698645215985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.5131154988556097</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D24">
-        <v>0.5508701124794921</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E24">
-        <v>0.5995153895173821</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F24">
-        <v>0.608279365922254</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9514474925917106</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J24">
-        <v>0.5940580732570947</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K24">
-        <v>0.5834683135843971</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L24">
-        <v>0.628054626399263</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M24">
-        <v>0.6361888097585527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N24">
+        <v>0.7593698645215985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.5131154988556097</v>
+        <v>0.7085619250966263</v>
       </c>
       <c r="D25">
-        <v>0.5508701124794921</v>
+        <v>0.728555478158887</v>
       </c>
       <c r="E25">
-        <v>0.5995153895173821</v>
+        <v>0.7560610344238674</v>
       </c>
       <c r="F25">
-        <v>0.608279365922254</v>
+        <v>0.7603897631888249</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9514474925917106</v>
+        <v>0.9871739650813022</v>
       </c>
       <c r="J25">
-        <v>0.5940580732570947</v>
+        <v>0.7582930014820711</v>
       </c>
       <c r="K25">
-        <v>0.5834683135843971</v>
+        <v>0.751390844895653</v>
       </c>
       <c r="L25">
-        <v>0.628054626399263</v>
+        <v>0.7777247091399808</v>
       </c>
       <c r="M25">
-        <v>0.6361888097585527</v>
+        <v>0.7818799479172586</v>
+      </c>
+      <c r="N25">
+        <v>0.7593698645215985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9048787851343879</v>
+        <v>0.8722371408342194</v>
       </c>
       <c r="D2">
-        <v>0.9144316547918474</v>
+        <v>0.8815012594491731</v>
       </c>
       <c r="E2">
-        <v>0.9236710889964742</v>
+        <v>0.895832563672622</v>
       </c>
       <c r="F2">
-        <v>0.9307961045941443</v>
+        <v>0.8702963215885527</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029150012410258</v>
+        <v>1.021778791618032</v>
       </c>
       <c r="J2">
-        <v>0.9303312398035281</v>
+        <v>0.8990493499895558</v>
       </c>
       <c r="K2">
-        <v>0.9272275047454666</v>
+        <v>0.8949020176729716</v>
       </c>
       <c r="L2">
-        <v>0.9363072258242712</v>
+        <v>0.9089629414793212</v>
       </c>
       <c r="M2">
-        <v>0.9433118688757058</v>
+        <v>0.8839166338344184</v>
       </c>
       <c r="N2">
-        <v>0.9316524168745335</v>
+        <v>0.9003261031889428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9286460142266566</v>
+        <v>0.9084097106848444</v>
       </c>
       <c r="D3">
-        <v>0.9371643357342474</v>
+        <v>0.9180333303674417</v>
       </c>
       <c r="E3">
-        <v>0.9442560067242955</v>
+        <v>0.9265824750538575</v>
       </c>
       <c r="F3">
-        <v>0.9519396890711044</v>
+        <v>0.9108271741040244</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034297725210208</v>
+        <v>1.029265957956711</v>
       </c>
       <c r="J3">
-        <v>0.9512907796804442</v>
+        <v>0.9317519960062086</v>
       </c>
       <c r="K3">
-        <v>0.9486697780927208</v>
+        <v>0.929834799957805</v>
       </c>
       <c r="L3">
-        <v>0.9556555876033324</v>
+        <v>0.9382497276873617</v>
       </c>
       <c r="M3">
-        <v>0.9632268282105386</v>
+        <v>0.9227442890868888</v>
       </c>
       <c r="N3">
-        <v>0.9526417217021682</v>
+        <v>0.9330751907139851</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9425688039543572</v>
+        <v>0.9275513456640676</v>
       </c>
       <c r="D4">
-        <v>0.950496386468062</v>
+        <v>0.9373225779240372</v>
       </c>
       <c r="E4">
-        <v>0.9563305554202048</v>
+        <v>0.9428863087822948</v>
       </c>
       <c r="F4">
-        <v>0.9643526598186063</v>
+        <v>0.9321028910028928</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037289458048763</v>
+        <v>1.033176243197585</v>
       </c>
       <c r="J4">
-        <v>0.9635651435007583</v>
+        <v>0.9490092228461793</v>
       </c>
       <c r="K4">
-        <v>0.9612314264565462</v>
+        <v>0.9482413483775877</v>
       </c>
       <c r="L4">
-        <v>0.9669862622613595</v>
+        <v>0.9537266931922359</v>
       </c>
       <c r="M4">
-        <v>0.9749012484110161</v>
+        <v>0.9430962778638867</v>
       </c>
       <c r="N4">
-        <v>0.9649335165269963</v>
+        <v>0.9503569247955004</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.948135537739025</v>
+        <v>0.9349099789086542</v>
       </c>
       <c r="D5">
-        <v>0.9558298650145644</v>
+        <v>0.9447293817686488</v>
       </c>
       <c r="E5">
-        <v>0.9611611522059129</v>
+        <v>0.9491595590996098</v>
       </c>
       <c r="F5">
-        <v>0.9693204309896718</v>
+        <v>0.9402481862550025</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03847900185604</v>
+        <v>1.034664663170419</v>
       </c>
       <c r="J5">
-        <v>0.9684712754168482</v>
+        <v>0.955633442750023</v>
       </c>
       <c r="K5">
-        <v>0.9662534815171925</v>
+        <v>0.9553013293338579</v>
       </c>
       <c r="L5">
-        <v>0.9715150539789174</v>
+        <v>0.9596717854144975</v>
       </c>
       <c r="M5">
-        <v>0.9795694926532681</v>
+        <v>0.9508812639935469</v>
       </c>
       <c r="N5">
-        <v>0.9698466157131481</v>
+        <v>0.9569905518514158</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9490548711564837</v>
+        <v>0.9361112136371789</v>
       </c>
       <c r="D6">
-        <v>0.9567108327897141</v>
+        <v>0.9459380062077133</v>
       </c>
       <c r="E6">
-        <v>0.9619590586755999</v>
+        <v>0.9501839006366813</v>
       </c>
       <c r="F6">
-        <v>0.9701410818499234</v>
+        <v>0.9415759950218372</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03867503822097</v>
+        <v>1.034906711753842</v>
       </c>
       <c r="J6">
-        <v>0.9692814079728803</v>
+        <v>0.9567142327668484</v>
       </c>
       <c r="K6">
-        <v>0.9670828203732182</v>
+        <v>0.9564529214441508</v>
       </c>
       <c r="L6">
-        <v>0.9722628668501004</v>
+        <v>0.9606419980462748</v>
       </c>
       <c r="M6">
-        <v>0.9803404345853588</v>
+        <v>0.9521499534979168</v>
       </c>
       <c r="N6">
-        <v>0.9706578987503334</v>
+        <v>0.9580728767140334</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9426442446104328</v>
+        <v>0.9276520867746451</v>
       </c>
       <c r="D7">
-        <v>0.9505686550828408</v>
+        <v>0.93742401168399</v>
       </c>
       <c r="E7">
-        <v>0.9563960096185694</v>
+        <v>0.9429721702853032</v>
       </c>
       <c r="F7">
-        <v>0.9644199664659105</v>
+        <v>0.9322145311694445</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037305606462907</v>
+        <v>1.033196682380247</v>
       </c>
       <c r="J7">
-        <v>0.9636316384062222</v>
+        <v>0.9490999486514065</v>
       </c>
       <c r="K7">
-        <v>0.9612994881439881</v>
+        <v>0.9483380631792759</v>
       </c>
       <c r="L7">
-        <v>0.9670476435986708</v>
+        <v>0.9538081015490396</v>
       </c>
       <c r="M7">
-        <v>0.974964512488806</v>
+        <v>0.9432030061690498</v>
       </c>
       <c r="N7">
-        <v>0.9650001058628532</v>
+        <v>0.9504477794417771</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9132573671888526</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D8">
-        <v>0.9224415876292746</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E8">
-        <v>0.9309235367273669</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F8">
-        <v>0.9382424108489035</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030969281198912</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J8">
-        <v>0.937720365467976</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K8">
-        <v>0.9347857961966505</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L8">
-        <v>0.9431282909843772</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M8">
-        <v>0.950329430402123</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N8">
-        <v>0.9390520359449698</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8455413033325559</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D9">
-        <v>0.8578457932840482</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E9">
-        <v>0.8724756792915239</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F9">
-        <v>0.8783529366494387</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.01621773895076</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J9">
-        <v>0.8780374446624186</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K9">
-        <v>0.873760243027486</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L9">
-        <v>0.8880429429357019</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M9">
-        <v>0.893785070791825</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N9">
-        <v>0.8792843585461417</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7725773170191421</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D10">
-        <v>0.7886917358809135</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E10">
-        <v>0.8100742043672936</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F10">
-        <v>0.8148358059281341</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.000499932628705</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J10">
-        <v>0.8140001520708184</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K10">
-        <v>0.8083174068337511</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L10">
-        <v>0.8289946694851036</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M10">
-        <v>0.8336061853211882</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N10">
-        <v>0.8151561256538816</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D11">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E11">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F11">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J11">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K11">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L11">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M11">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N11">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D12">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E12">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F12">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J12">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K12">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L12">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M12">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N12">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D13">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E13">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F13">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J13">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K13">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L13">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M13">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N13">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D14">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E14">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F14">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J14">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K14">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L14">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M14">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N14">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D15">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E15">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F15">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J15">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K15">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L15">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M15">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N15">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D16">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E16">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F16">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J16">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K16">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L16">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M16">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N16">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D17">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E17">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F17">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J17">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K17">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L17">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M17">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N17">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D18">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E18">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F18">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J18">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K18">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L18">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M18">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N18">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D19">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E19">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F19">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J19">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K19">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L19">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M19">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N19">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D20">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E20">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F20">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J20">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K20">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L20">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M20">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N20">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D21">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E21">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F21">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J21">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K21">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L21">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M21">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N21">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D22">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E22">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F22">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J22">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K22">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L22">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M22">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N22">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D23">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E23">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F23">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J23">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K23">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L23">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M23">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N23">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D24">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E24">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F24">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J24">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K24">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L24">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M24">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N24">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7085619250966263</v>
+        <v>0.8856368802796868</v>
       </c>
       <c r="D25">
-        <v>0.728555478158887</v>
+        <v>0.8950458392455344</v>
       </c>
       <c r="E25">
-        <v>0.7560610344238674</v>
+        <v>0.9072140793615241</v>
       </c>
       <c r="F25">
-        <v>0.7603897631888249</v>
+        <v>0.8853585235808588</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9871739650813022</v>
+        <v>1.024562282660432</v>
       </c>
       <c r="J25">
-        <v>0.7582930014820711</v>
+        <v>0.911176588743844</v>
       </c>
       <c r="K25">
-        <v>0.751390844895653</v>
+        <v>0.907863930654106</v>
       </c>
       <c r="L25">
-        <v>0.7777247091399808</v>
+        <v>0.9198171158899511</v>
       </c>
       <c r="M25">
-        <v>0.7818799479172586</v>
+        <v>0.8983533335633226</v>
       </c>
       <c r="N25">
-        <v>0.7593698645215985</v>
+        <v>0.9124705640132755</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8722371408342194</v>
+        <v>1.004216201556318</v>
       </c>
       <c r="D2">
-        <v>0.8815012594491731</v>
+        <v>1.01254985332231</v>
       </c>
       <c r="E2">
-        <v>0.895832563672622</v>
+        <v>1.01806686674699</v>
       </c>
       <c r="F2">
-        <v>0.8702963215885527</v>
+        <v>1.024843814059908</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.021778791618032</v>
+        <v>1.045255833559666</v>
       </c>
       <c r="J2">
-        <v>0.8990493499895558</v>
+        <v>1.026271533924268</v>
       </c>
       <c r="K2">
-        <v>0.8949020176729716</v>
+        <v>1.023837074256013</v>
       </c>
       <c r="L2">
-        <v>0.9089629414793212</v>
+        <v>1.02928011120993</v>
       </c>
       <c r="M2">
-        <v>0.8839166338344184</v>
+        <v>1.035967554092466</v>
       </c>
       <c r="N2">
-        <v>0.9003261031889428</v>
+        <v>1.012033974906793</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9084097106848444</v>
+        <v>1.010267676075727</v>
       </c>
       <c r="D3">
-        <v>0.9180333303674417</v>
+        <v>1.017952471430425</v>
       </c>
       <c r="E3">
-        <v>0.9265824750538575</v>
+        <v>1.023213500313821</v>
       </c>
       <c r="F3">
-        <v>0.9108271741040244</v>
+        <v>1.030389839833298</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029265957956711</v>
+        <v>1.046734224113226</v>
       </c>
       <c r="J3">
-        <v>0.9317519960062086</v>
+        <v>1.030482294357194</v>
       </c>
       <c r="K3">
-        <v>0.929834799957805</v>
+        <v>1.028360686613284</v>
       </c>
       <c r="L3">
-        <v>0.9382497276873617</v>
+        <v>1.03355773184059</v>
       </c>
       <c r="M3">
-        <v>0.9227442890868888</v>
+        <v>1.040648099909978</v>
       </c>
       <c r="N3">
-        <v>0.9330751907139851</v>
+        <v>1.01349461176159</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9275513456640676</v>
+        <v>1.014084676743658</v>
       </c>
       <c r="D4">
-        <v>0.9373225779240372</v>
+        <v>1.021365366303276</v>
       </c>
       <c r="E4">
-        <v>0.9428863087822948</v>
+        <v>1.026465996452913</v>
       </c>
       <c r="F4">
-        <v>0.9321028910028928</v>
+        <v>1.033894942834931</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033176243197585</v>
+        <v>1.047654468125324</v>
       </c>
       <c r="J4">
-        <v>0.9490092228461793</v>
+        <v>1.033134830475095</v>
       </c>
       <c r="K4">
-        <v>0.9482413483775877</v>
+        <v>1.031212591410026</v>
       </c>
       <c r="L4">
-        <v>0.9537266931922359</v>
+        <v>1.036255158290085</v>
       </c>
       <c r="M4">
-        <v>0.9430962778638867</v>
+        <v>1.043600797894733</v>
       </c>
       <c r="N4">
-        <v>0.9503569247955004</v>
+        <v>1.014413914885659</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9349099789086542</v>
+        <v>1.015666803204547</v>
       </c>
       <c r="D5">
-        <v>0.9447293817686488</v>
+        <v>1.022781175136348</v>
       </c>
       <c r="E5">
-        <v>0.9491595590996098</v>
+        <v>1.027815566540548</v>
       </c>
       <c r="F5">
-        <v>0.9402481862550025</v>
+        <v>1.035349382543932</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034664663170419</v>
+        <v>1.048032910582799</v>
       </c>
       <c r="J5">
-        <v>0.955633442750023</v>
+        <v>1.034233418815359</v>
       </c>
       <c r="K5">
-        <v>0.9553013293338579</v>
+        <v>1.032394303604734</v>
       </c>
       <c r="L5">
-        <v>0.9596717854144975</v>
+        <v>1.037373000374765</v>
       </c>
       <c r="M5">
-        <v>0.9508812639935469</v>
+        <v>1.044824711914869</v>
       </c>
       <c r="N5">
-        <v>0.9569905518514158</v>
+        <v>1.014794451873706</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9361112136371789</v>
+        <v>1.015931157750299</v>
       </c>
       <c r="D6">
-        <v>0.9459380062077133</v>
+        <v>1.023017807891873</v>
       </c>
       <c r="E6">
-        <v>0.9501839006366813</v>
+        <v>1.028041145758669</v>
       </c>
       <c r="F6">
-        <v>0.9415759950218372</v>
+        <v>1.035592493969566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034906711753842</v>
+        <v>1.048095966294679</v>
       </c>
       <c r="J6">
-        <v>0.9567142327668484</v>
+        <v>1.034416927031419</v>
       </c>
       <c r="K6">
-        <v>0.9564529214441508</v>
+        <v>1.03259172939356</v>
       </c>
       <c r="L6">
-        <v>0.9606419980462748</v>
+        <v>1.037559763561274</v>
       </c>
       <c r="M6">
-        <v>0.9521499534979168</v>
+        <v>1.04502921376027</v>
       </c>
       <c r="N6">
-        <v>0.9580728767140334</v>
+        <v>1.014858004318743</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9276520867746451</v>
+        <v>1.014105904375589</v>
       </c>
       <c r="D7">
-        <v>0.93742401168399</v>
+        <v>1.021384357824763</v>
       </c>
       <c r="E7">
-        <v>0.9429721702853032</v>
+        <v>1.02648409828014</v>
       </c>
       <c r="F7">
-        <v>0.9322145311694445</v>
+        <v>1.03391445105919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033196682380247</v>
+        <v>1.047659557651902</v>
       </c>
       <c r="J7">
-        <v>0.9490999486514065</v>
+        <v>1.033149573924678</v>
       </c>
       <c r="K7">
-        <v>0.9483380631792759</v>
+        <v>1.031228448223095</v>
       </c>
       <c r="L7">
-        <v>0.9538081015490396</v>
+        <v>1.036270157518375</v>
       </c>
       <c r="M7">
-        <v>0.9432030061690498</v>
+        <v>1.043617219273667</v>
       </c>
       <c r="N7">
-        <v>0.9504477794417771</v>
+        <v>1.014419022659711</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8856368802796868</v>
+        <v>1.00628244407491</v>
       </c>
       <c r="D8">
-        <v>0.8950458392455344</v>
+        <v>1.014393424884747</v>
       </c>
       <c r="E8">
-        <v>0.9072140793615241</v>
+        <v>1.019822803515264</v>
       </c>
       <c r="F8">
-        <v>0.8853585235808588</v>
+        <v>1.026735976483534</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024562282660432</v>
+        <v>1.045763168477581</v>
       </c>
       <c r="J8">
-        <v>0.911176588743844</v>
+        <v>1.027709962423651</v>
       </c>
       <c r="K8">
-        <v>0.907863930654106</v>
+        <v>1.025381894814203</v>
       </c>
       <c r="L8">
-        <v>0.9198171158899511</v>
+        <v>1.030740793560295</v>
       </c>
       <c r="M8">
-        <v>0.8983533335633226</v>
+        <v>1.037565572323138</v>
       </c>
       <c r="N8">
-        <v>0.9124705640132755</v>
+        <v>1.01253310424625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8856368802796868</v>
+        <v>0.9916873975514692</v>
       </c>
       <c r="D9">
-        <v>0.8950458392455344</v>
+        <v>1.001395920932473</v>
       </c>
       <c r="E9">
-        <v>0.9072140793615241</v>
+        <v>1.007449321150073</v>
       </c>
       <c r="F9">
-        <v>0.8853585235808588</v>
+        <v>1.013403198722559</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024562282660432</v>
+        <v>1.042129286551566</v>
       </c>
       <c r="J9">
-        <v>0.911176588743844</v>
+        <v>1.017537149163767</v>
       </c>
       <c r="K9">
-        <v>0.907863930654106</v>
+        <v>1.014466390820056</v>
       </c>
       <c r="L9">
-        <v>0.9198171158899511</v>
+        <v>1.020422683531226</v>
       </c>
       <c r="M9">
-        <v>0.8983533335633226</v>
+        <v>1.026282497834846</v>
       </c>
       <c r="N9">
-        <v>0.9124705640132755</v>
+        <v>1.00900015891053</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8856368802796868</v>
+        <v>0.9813319108509968</v>
       </c>
       <c r="D10">
-        <v>0.8950458392455344</v>
+        <v>0.9922085889963577</v>
       </c>
       <c r="E10">
-        <v>0.9072140793615241</v>
+        <v>0.9987116836651471</v>
       </c>
       <c r="F10">
-        <v>0.8853585235808588</v>
+        <v>1.003988690042487</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024562282660432</v>
+        <v>1.039489375915714</v>
       </c>
       <c r="J10">
-        <v>0.911176588743844</v>
+        <v>1.010306285183514</v>
       </c>
       <c r="K10">
-        <v>0.907863930654106</v>
+        <v>1.00671995931688</v>
       </c>
       <c r="L10">
-        <v>0.9198171158899511</v>
+        <v>1.013104238086532</v>
       </c>
       <c r="M10">
-        <v>0.8983533335633226</v>
+        <v>1.018286298984411</v>
       </c>
       <c r="N10">
-        <v>0.9124705640132755</v>
+        <v>1.006485627034399</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8856368802796868</v>
+        <v>0.9766789404268088</v>
       </c>
       <c r="D11">
-        <v>0.8950458392455344</v>
+        <v>0.9880898441784177</v>
       </c>
       <c r="E11">
-        <v>0.9072140793615241</v>
+        <v>0.9947968386227207</v>
       </c>
       <c r="F11">
-        <v>0.8853585235808588</v>
+        <v>0.9997706129181881</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024562282660432</v>
+        <v>1.038289461545656</v>
       </c>
       <c r="J11">
-        <v>0.911176588743844</v>
+        <v>1.007055148143218</v>
       </c>
       <c r="K11">
-        <v>0.907863930654106</v>
+        <v>1.003239918956449</v>
       </c>
       <c r="L11">
-        <v>0.9198171158899511</v>
+        <v>1.009817550579588</v>
       </c>
       <c r="M11">
-        <v>0.8983533335633226</v>
+        <v>1.014696856440412</v>
       </c>
       <c r="N11">
-        <v>0.9124705640132755</v>
+        <v>1.005354445445019</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8856368802796868</v>
+        <v>0.9749232674196606</v>
       </c>
       <c r="D12">
-        <v>0.8950458392455344</v>
+        <v>0.986537255273263</v>
       </c>
       <c r="E12">
-        <v>0.9072140793615241</v>
+        <v>0.9933214805821943</v>
       </c>
       <c r="F12">
-        <v>0.8853585235808588</v>
+        <v>0.9981809750868255</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024562282660432</v>
+        <v>1.037834722985747</v>
       </c>
       <c r="J12">
-        <v>0.911176588743844</v>
+        <v>1.005828187739414</v>
       </c>
       <c r="K12">
-        <v>0.907863930654106</v>
+        <v>1.001927006631415</v>
       </c>
       <c r="L12">
-        <v>0.9198171158899511</v>
+        <v>1.008577758824307</v>
       </c>
       <c r="M12">
-        <v>0.8983533335633226</v>
+        <v>1.013343107916582</v>
       </c>
       <c r="N12">
-        <v>0.9124705640132755</v>
+        <v>1.004927470646954</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8856368802796868</v>
+        <v>0.9753011367908961</v>
       </c>
       <c r="D13">
-        <v>0.8950458392455344</v>
+        <v>0.9868713454474035</v>
       </c>
       <c r="E13">
-        <v>0.9072140793615241</v>
+        <v>0.9936389349207499</v>
       </c>
       <c r="F13">
-        <v>0.8853585235808588</v>
+        <v>0.9985230194039394</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024562282660432</v>
+        <v>1.037932683486913</v>
       </c>
       <c r="J13">
-        <v>0.911176588743844</v>
+        <v>1.006092272480583</v>
       </c>
       <c r="K13">
-        <v>0.907863930654106</v>
+        <v>1.002209571618264</v>
       </c>
       <c r="L13">
-        <v>0.9198171158899511</v>
+        <v>1.008844578722173</v>
       </c>
       <c r="M13">
-        <v>0.8983533335633226</v>
+        <v>1.013634441613223</v>
       </c>
       <c r="N13">
-        <v>0.9124705640132755</v>
+        <v>1.005019373575825</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8856368802796868</v>
+        <v>0.9765343860210385</v>
       </c>
       <c r="D14">
-        <v>0.8950458392455344</v>
+        <v>0.9879619795732962</v>
       </c>
       <c r="E14">
-        <v>0.9072140793615241</v>
+        <v>0.9946753267742107</v>
       </c>
       <c r="F14">
-        <v>0.8853585235808588</v>
+        <v>0.9996396889919553</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024562282660432</v>
+        <v>1.038252060140783</v>
       </c>
       <c r="J14">
-        <v>0.911176588743844</v>
+        <v>1.006954129769892</v>
       </c>
       <c r="K14">
-        <v>0.907863930654106</v>
+        <v>1.003131815152823</v>
       </c>
       <c r="L14">
-        <v>0.9198171158899511</v>
+        <v>1.009715463831977</v>
       </c>
       <c r="M14">
-        <v>0.8983533335633226</v>
+        <v>1.014585381237202</v>
       </c>
       <c r="N14">
-        <v>0.9124705640132755</v>
+        <v>1.00531929305266</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8856368802796868</v>
+        <v>0.9772905448519558</v>
       </c>
       <c r="D15">
-        <v>0.8950458392455344</v>
+        <v>0.9886308966933491</v>
       </c>
       <c r="E15">
-        <v>0.9072140793615241</v>
+        <v>0.9953110249633512</v>
       </c>
       <c r="F15">
-        <v>0.8853585235808588</v>
+        <v>1.000324626985495</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024562282660432</v>
+        <v>1.038447625318803</v>
       </c>
       <c r="J15">
-        <v>0.911176588743844</v>
+        <v>1.007482544332091</v>
       </c>
       <c r="K15">
-        <v>0.907863930654106</v>
+        <v>1.003697310406584</v>
       </c>
       <c r="L15">
-        <v>0.9198171158899511</v>
+        <v>1.010249490802557</v>
       </c>
       <c r="M15">
-        <v>0.8983533335633226</v>
+        <v>1.015168530338111</v>
       </c>
       <c r="N15">
-        <v>0.9124705640132755</v>
+        <v>1.005503167965763</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8856368802796868</v>
+        <v>0.9816369897630338</v>
       </c>
       <c r="D16">
-        <v>0.8950458392455344</v>
+        <v>0.9924788431796464</v>
       </c>
       <c r="E16">
-        <v>0.9072140793615241</v>
+        <v>0.9989686085673037</v>
       </c>
       <c r="F16">
-        <v>0.8853585235808588</v>
+        <v>1.00426551562128</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024562282660432</v>
+        <v>1.039567771596158</v>
       </c>
       <c r="J16">
-        <v>0.911176588743844</v>
+        <v>1.01051941384731</v>
       </c>
       <c r="K16">
-        <v>0.907863930654106</v>
+        <v>1.006948153920865</v>
       </c>
       <c r="L16">
-        <v>0.9198171158899511</v>
+        <v>1.013319777524025</v>
       </c>
       <c r="M16">
-        <v>0.8983533335633226</v>
+        <v>1.01852172692345</v>
       </c>
       <c r="N16">
-        <v>0.9124705640132755</v>
+        <v>1.006559770719567</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8856368802796868</v>
+        <v>0.9843168337988507</v>
       </c>
       <c r="D17">
-        <v>0.8950458392455344</v>
+        <v>0.994853853580117</v>
       </c>
       <c r="E17">
-        <v>0.9072140793615241</v>
+        <v>1.001226743809755</v>
       </c>
       <c r="F17">
-        <v>0.8853585235808588</v>
+        <v>1.006698562738126</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024562282660432</v>
+        <v>1.040254860166501</v>
       </c>
       <c r="J17">
-        <v>0.911176588743844</v>
+        <v>1.012391325806222</v>
       </c>
       <c r="K17">
-        <v>0.907863930654106</v>
+        <v>1.008952719072395</v>
       </c>
       <c r="L17">
-        <v>0.9198171158899511</v>
+        <v>1.015213297898439</v>
       </c>
       <c r="M17">
-        <v>0.8983533335633226</v>
+        <v>1.020590152504843</v>
       </c>
       <c r="N17">
-        <v>0.9124705640132755</v>
+        <v>1.007210909797072</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8856368802796868</v>
+        <v>0.9858637806806739</v>
       </c>
       <c r="D18">
-        <v>0.8950458392455344</v>
+        <v>0.9962257091011785</v>
       </c>
       <c r="E18">
-        <v>0.9072140793615241</v>
+        <v>1.002531305329324</v>
       </c>
       <c r="F18">
-        <v>0.8853585235808588</v>
+        <v>1.00810417766611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024562282660432</v>
+        <v>1.040650181792778</v>
       </c>
       <c r="J18">
-        <v>0.911176588743844</v>
+        <v>1.013471684146507</v>
       </c>
       <c r="K18">
-        <v>0.907863930654106</v>
+        <v>1.01010991131538</v>
       </c>
       <c r="L18">
-        <v>0.9198171158899511</v>
+        <v>1.016306487729838</v>
       </c>
       <c r="M18">
-        <v>0.8983533335633226</v>
+        <v>1.02178447350724</v>
       </c>
       <c r="N18">
-        <v>0.9124705640132755</v>
+        <v>1.007586651623164</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8856368802796868</v>
+        <v>0.9863885649169976</v>
       </c>
       <c r="D19">
-        <v>0.8950458392455344</v>
+        <v>0.9966912409825751</v>
       </c>
       <c r="E19">
-        <v>0.9072140793615241</v>
+        <v>1.002974037226094</v>
       </c>
       <c r="F19">
-        <v>0.8853585235808588</v>
+        <v>1.008581205194355</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024562282660432</v>
+        <v>1.040784067013889</v>
       </c>
       <c r="J19">
-        <v>0.911176588743844</v>
+        <v>1.013838145735796</v>
       </c>
       <c r="K19">
-        <v>0.907863930654106</v>
+        <v>1.010502481820519</v>
       </c>
       <c r="L19">
-        <v>0.9198171158899511</v>
+        <v>1.016677362658944</v>
       </c>
       <c r="M19">
-        <v>0.8983533335633226</v>
+        <v>1.022189683955417</v>
       </c>
       <c r="N19">
-        <v>0.9124705640132755</v>
+        <v>1.007714094397978</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8856368802796868</v>
+        <v>0.9840309970526574</v>
       </c>
       <c r="D20">
-        <v>0.8950458392455344</v>
+        <v>0.9946004393678415</v>
       </c>
       <c r="E20">
-        <v>0.9072140793615241</v>
+        <v>1.000985777665387</v>
       </c>
       <c r="F20">
-        <v>0.8853585235808588</v>
+        <v>1.006438931352473</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024562282660432</v>
+        <v>1.040181708783277</v>
       </c>
       <c r="J20">
-        <v>0.911176588743844</v>
+        <v>1.012191685432107</v>
       </c>
       <c r="K20">
-        <v>0.907863930654106</v>
+        <v>1.008738902699689</v>
       </c>
       <c r="L20">
-        <v>0.9198171158899511</v>
+        <v>1.015011315480524</v>
       </c>
       <c r="M20">
-        <v>0.8983533335633226</v>
+        <v>1.020369497000641</v>
       </c>
       <c r="N20">
-        <v>0.9124705640132755</v>
+        <v>1.007141471351561</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8856368802796868</v>
+        <v>0.9761719967323583</v>
       </c>
       <c r="D21">
-        <v>0.8950458392455344</v>
+        <v>0.9876414552669182</v>
       </c>
       <c r="E21">
-        <v>0.9072140793615241</v>
+        <v>0.9943707332586268</v>
       </c>
       <c r="F21">
-        <v>0.8853585235808588</v>
+        <v>0.9993115021614587</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024562282660432</v>
+        <v>1.038158265416236</v>
       </c>
       <c r="J21">
-        <v>0.911176588743844</v>
+        <v>1.006700879314618</v>
       </c>
       <c r="K21">
-        <v>0.907863930654106</v>
+        <v>1.002860808699071</v>
       </c>
       <c r="L21">
-        <v>0.9198171158899511</v>
+        <v>1.009459544443285</v>
       </c>
       <c r="M21">
-        <v>0.8983533335633226</v>
+        <v>1.014305930096068</v>
       </c>
       <c r="N21">
-        <v>0.9124705640132755</v>
+        <v>1.005231165789476</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8856368802796868</v>
+        <v>0.9710713504069003</v>
       </c>
       <c r="D22">
-        <v>0.8950458392455344</v>
+        <v>0.9831338037760619</v>
       </c>
       <c r="E22">
-        <v>0.9072140793615241</v>
+        <v>0.9900880368209249</v>
       </c>
       <c r="F22">
-        <v>0.8853585235808588</v>
+        <v>0.9946970566792246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024562282660432</v>
+        <v>1.036833475216801</v>
       </c>
       <c r="J22">
-        <v>0.911176588743844</v>
+        <v>1.003135936189907</v>
       </c>
       <c r="K22">
-        <v>0.907863930654106</v>
+        <v>0.9990469549905278</v>
       </c>
       <c r="L22">
-        <v>0.9198171158899511</v>
+        <v>1.005858442567541</v>
       </c>
       <c r="M22">
-        <v>0.8983533335633226</v>
+        <v>1.010374303008647</v>
       </c>
       <c r="N22">
-        <v>0.9124705640132755</v>
+        <v>1.003990467408566</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8856368802796868</v>
+        <v>0.9737911180084611</v>
       </c>
       <c r="D23">
-        <v>0.8950458392455344</v>
+        <v>0.9855365040812858</v>
       </c>
       <c r="E23">
-        <v>0.9072140793615241</v>
+        <v>0.9923706173667191</v>
       </c>
       <c r="F23">
-        <v>0.8853585235808588</v>
+        <v>0.9971564569956358</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024562282660432</v>
+        <v>1.037540935508622</v>
       </c>
       <c r="J23">
-        <v>0.911176588743844</v>
+        <v>1.005036926331119</v>
       </c>
       <c r="K23">
-        <v>0.907863930654106</v>
+        <v>1.001080437580791</v>
       </c>
       <c r="L23">
-        <v>0.9198171158899511</v>
+        <v>1.007778388848158</v>
       </c>
       <c r="M23">
-        <v>0.8983533335633226</v>
+        <v>1.012470333228206</v>
       </c>
       <c r="N23">
-        <v>0.9124705640132755</v>
+        <v>1.00465209794081</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8856368802796868</v>
+        <v>0.9841602041708122</v>
       </c>
       <c r="D24">
-        <v>0.8950458392455344</v>
+        <v>0.9947149877831675</v>
       </c>
       <c r="E24">
-        <v>0.9072140793615241</v>
+        <v>1.00109469863203</v>
       </c>
       <c r="F24">
-        <v>0.8853585235808588</v>
+        <v>1.00655628932594</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024562282660432</v>
+        <v>1.040214779535728</v>
       </c>
       <c r="J24">
-        <v>0.911176588743844</v>
+        <v>1.012281929754745</v>
       </c>
       <c r="K24">
-        <v>0.907863930654106</v>
+        <v>1.008835554210428</v>
       </c>
       <c r="L24">
-        <v>0.9198171158899511</v>
+        <v>1.015102617369709</v>
       </c>
       <c r="M24">
-        <v>0.8983533335633226</v>
+        <v>1.020469239190407</v>
       </c>
       <c r="N24">
-        <v>0.9124705640132755</v>
+        <v>1.007172860099865</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8856368802796868</v>
+        <v>0.9955643835854145</v>
       </c>
       <c r="D25">
-        <v>0.8950458392455344</v>
+        <v>1.004842948240441</v>
       </c>
       <c r="E25">
-        <v>0.9072140793615241</v>
+        <v>1.010729456973973</v>
       </c>
       <c r="F25">
-        <v>0.8853585235808588</v>
+        <v>1.016937515827217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024562282660432</v>
+        <v>1.043105393289526</v>
       </c>
       <c r="J25">
-        <v>0.911176588743844</v>
+        <v>1.020241951581033</v>
       </c>
       <c r="K25">
-        <v>0.907863930654106</v>
+        <v>1.017366546010405</v>
       </c>
       <c r="L25">
-        <v>0.9198171158899511</v>
+        <v>1.023163464336732</v>
       </c>
       <c r="M25">
-        <v>0.8983533335633226</v>
+        <v>1.029278467817376</v>
       </c>
       <c r="N25">
-        <v>0.9124705640132755</v>
+        <v>1.00994014024679</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004216201556318</v>
+        <v>1.044705284417568</v>
       </c>
       <c r="D2">
-        <v>1.01254985332231</v>
+        <v>1.047349785034542</v>
       </c>
       <c r="E2">
-        <v>1.01806686674699</v>
+        <v>1.051737923372595</v>
       </c>
       <c r="F2">
-        <v>1.024843814059908</v>
+        <v>1.0606697192026</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045255833559666</v>
+        <v>1.037779805521828</v>
       </c>
       <c r="J2">
-        <v>1.026271533924268</v>
+        <v>1.049768939149611</v>
       </c>
       <c r="K2">
-        <v>1.023837074256013</v>
+        <v>1.050112669623495</v>
       </c>
       <c r="L2">
-        <v>1.02928011120993</v>
+        <v>1.054488594488906</v>
       </c>
       <c r="M2">
-        <v>1.035967554092466</v>
+        <v>1.063395868606503</v>
       </c>
       <c r="N2">
-        <v>1.012033974906793</v>
+        <v>1.020367742962661</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010267676075727</v>
+        <v>1.045952768263674</v>
       </c>
       <c r="D3">
-        <v>1.017952471430425</v>
+        <v>1.048512554600585</v>
       </c>
       <c r="E3">
-        <v>1.023213500313821</v>
+        <v>1.052849805471249</v>
       </c>
       <c r="F3">
-        <v>1.030389839833298</v>
+        <v>1.061873592691342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046734224113226</v>
+        <v>1.03800658802673</v>
       </c>
       <c r="J3">
-        <v>1.030482294357194</v>
+        <v>1.050662313420207</v>
       </c>
       <c r="K3">
-        <v>1.028360686613284</v>
+        <v>1.051086355557237</v>
       </c>
       <c r="L3">
-        <v>1.03355773184059</v>
+        <v>1.055412413816581</v>
       </c>
       <c r="M3">
-        <v>1.040648099909978</v>
+        <v>1.064413230265951</v>
       </c>
       <c r="N3">
-        <v>1.01349461176159</v>
+        <v>1.020672052285571</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014084676743658</v>
+        <v>1.046759573573921</v>
       </c>
       <c r="D4">
-        <v>1.021365366303276</v>
+        <v>1.049264830246337</v>
       </c>
       <c r="E4">
-        <v>1.026465996452913</v>
+        <v>1.053569226102874</v>
       </c>
       <c r="F4">
-        <v>1.033894942834931</v>
+        <v>1.062652600757053</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047654468125324</v>
+        <v>1.038151695725416</v>
       </c>
       <c r="J4">
-        <v>1.033134830475095</v>
+        <v>1.051239486644071</v>
       </c>
       <c r="K4">
-        <v>1.031212591410026</v>
+        <v>1.051715705986755</v>
       </c>
       <c r="L4">
-        <v>1.036255158290085</v>
+        <v>1.056009557178154</v>
       </c>
       <c r="M4">
-        <v>1.043600797894733</v>
+        <v>1.065070981112206</v>
       </c>
       <c r="N4">
-        <v>1.014413914885659</v>
+        <v>1.020868467069257</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015666803204547</v>
+        <v>1.047098661206075</v>
       </c>
       <c r="D5">
-        <v>1.022781175136348</v>
+        <v>1.049581061338056</v>
       </c>
       <c r="E5">
-        <v>1.027815566540548</v>
+        <v>1.053871662095667</v>
       </c>
       <c r="F5">
-        <v>1.035349382543932</v>
+        <v>1.062980102542939</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048032910582799</v>
+        <v>1.038212307745903</v>
       </c>
       <c r="J5">
-        <v>1.034233418815359</v>
+        <v>1.051481916329845</v>
       </c>
       <c r="K5">
-        <v>1.032394303604734</v>
+        <v>1.051980121371048</v>
       </c>
       <c r="L5">
-        <v>1.037373000374765</v>
+        <v>1.056260446915264</v>
       </c>
       <c r="M5">
-        <v>1.044824711914869</v>
+        <v>1.065347369334207</v>
       </c>
       <c r="N5">
-        <v>1.014794451873706</v>
+        <v>1.020950922033975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015931157750299</v>
+        <v>1.04715559011118</v>
       </c>
       <c r="D6">
-        <v>1.023017807891873</v>
+        <v>1.049634156478746</v>
       </c>
       <c r="E6">
-        <v>1.028041145758669</v>
+        <v>1.053922441977581</v>
       </c>
       <c r="F6">
-        <v>1.035592493969566</v>
+        <v>1.06303509198073</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048095966294679</v>
+        <v>1.038222461837395</v>
       </c>
       <c r="J6">
-        <v>1.034416927031419</v>
+        <v>1.051522608837338</v>
       </c>
       <c r="K6">
-        <v>1.03259172939356</v>
+        <v>1.052024508331987</v>
       </c>
       <c r="L6">
-        <v>1.037559763561274</v>
+        <v>1.056302563689093</v>
       </c>
       <c r="M6">
-        <v>1.04502921376027</v>
+        <v>1.065393768538804</v>
       </c>
       <c r="N6">
-        <v>1.014858004318743</v>
+        <v>1.020964759687967</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014105904375589</v>
+        <v>1.046764104843052</v>
       </c>
       <c r="D7">
-        <v>1.021384357824763</v>
+        <v>1.049269055840089</v>
       </c>
       <c r="E7">
-        <v>1.02648409828014</v>
+        <v>1.053573267298738</v>
       </c>
       <c r="F7">
-        <v>1.03391445105919</v>
+        <v>1.062656976823169</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047659557651902</v>
+        <v>1.038152507163142</v>
       </c>
       <c r="J7">
-        <v>1.033149573924678</v>
+        <v>1.051242726840233</v>
       </c>
       <c r="K7">
-        <v>1.031228448223095</v>
+        <v>1.051719239758752</v>
       </c>
       <c r="L7">
-        <v>1.036270157518375</v>
+        <v>1.056012910164166</v>
       </c>
       <c r="M7">
-        <v>1.043617219273667</v>
+        <v>1.065074674735048</v>
       </c>
       <c r="N7">
-        <v>1.014419022659711</v>
+        <v>1.020869569298972</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00628244407491</v>
+        <v>1.045126961771371</v>
       </c>
       <c r="D8">
-        <v>1.014393424884747</v>
+        <v>1.047742773089542</v>
       </c>
       <c r="E8">
-        <v>1.019822803515264</v>
+        <v>1.05211369860509</v>
       </c>
       <c r="F8">
-        <v>1.026735976483534</v>
+        <v>1.061076570455282</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045763168477581</v>
+        <v>1.037856786631745</v>
       </c>
       <c r="J8">
-        <v>1.027709962423651</v>
+        <v>1.050071046320335</v>
       </c>
       <c r="K8">
-        <v>1.025381894814203</v>
+        <v>1.050441875024809</v>
       </c>
       <c r="L8">
-        <v>1.030740793560295</v>
+        <v>1.054800934731333</v>
       </c>
       <c r="M8">
-        <v>1.037565572323138</v>
+        <v>1.063739805552426</v>
       </c>
       <c r="N8">
-        <v>1.01253310424625</v>
+        <v>1.020470688176874</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9916873975514692</v>
+        <v>1.04223893053545</v>
       </c>
       <c r="D9">
-        <v>1.001395920932473</v>
+        <v>1.045052317762241</v>
       </c>
       <c r="E9">
-        <v>1.007449321150073</v>
+        <v>1.049541367973866</v>
       </c>
       <c r="F9">
-        <v>1.013403198722559</v>
+        <v>1.058291781356711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042129286551566</v>
+        <v>1.037323145653888</v>
       </c>
       <c r="J9">
-        <v>1.017537149163767</v>
+        <v>1.047999440004797</v>
       </c>
       <c r="K9">
-        <v>1.014466390820056</v>
+        <v>1.048185645756952</v>
       </c>
       <c r="L9">
-        <v>1.020422683531226</v>
+        <v>1.052660395735892</v>
       </c>
       <c r="M9">
-        <v>1.026282497834846</v>
+        <v>1.061383315046018</v>
       </c>
       <c r="N9">
-        <v>1.00900015891053</v>
+        <v>1.019764010202407</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9813319108509968</v>
+        <v>1.040311283217446</v>
       </c>
       <c r="D10">
-        <v>0.9922085889963577</v>
+        <v>1.043257931933236</v>
       </c>
       <c r="E10">
-        <v>0.9987116836651471</v>
+        <v>1.047826126637655</v>
       </c>
       <c r="F10">
-        <v>1.003988690042487</v>
+        <v>1.056435207164796</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039489375915714</v>
+        <v>1.036958928076332</v>
       </c>
       <c r="J10">
-        <v>1.010306285183514</v>
+        <v>1.046613599201845</v>
       </c>
       <c r="K10">
-        <v>1.00671995931688</v>
+        <v>1.046677797632379</v>
       </c>
       <c r="L10">
-        <v>1.013104238086532</v>
+        <v>1.051229997239372</v>
       </c>
       <c r="M10">
-        <v>1.018286298984411</v>
+        <v>1.059809347558341</v>
       </c>
       <c r="N10">
-        <v>1.006485627034399</v>
+        <v>1.019290312385488</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9766789404268088</v>
+        <v>1.039476010916649</v>
       </c>
       <c r="D11">
-        <v>0.9880898441784177</v>
+        <v>1.042480740089707</v>
       </c>
       <c r="E11">
-        <v>0.9947968386227207</v>
+        <v>1.047083301994256</v>
       </c>
       <c r="F11">
-        <v>0.9997706129181881</v>
+        <v>1.05563125377692</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038289461545656</v>
+        <v>1.036799206373501</v>
       </c>
       <c r="J11">
-        <v>1.007055148143218</v>
+        <v>1.046012361958761</v>
       </c>
       <c r="K11">
-        <v>1.003239918956449</v>
+        <v>1.046023983569242</v>
       </c>
       <c r="L11">
-        <v>1.009817550579588</v>
+        <v>1.050609798410408</v>
       </c>
       <c r="M11">
-        <v>1.014696856440412</v>
+        <v>1.059127074780243</v>
       </c>
       <c r="N11">
-        <v>1.005354445445019</v>
+        <v>1.019084578304429</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9749232674196606</v>
+        <v>1.039165662027384</v>
       </c>
       <c r="D12">
-        <v>0.986537255273263</v>
+        <v>1.042192022461044</v>
       </c>
       <c r="E12">
-        <v>0.9933214805821943</v>
+        <v>1.046807364736684</v>
       </c>
       <c r="F12">
-        <v>0.9981809750868255</v>
+        <v>1.055332620762268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037834722985747</v>
+        <v>1.036739575630699</v>
       </c>
       <c r="J12">
-        <v>1.005828187739414</v>
+        <v>1.045788859595704</v>
       </c>
       <c r="K12">
-        <v>1.001927006631415</v>
+        <v>1.045780989763311</v>
       </c>
       <c r="L12">
-        <v>1.008577758824307</v>
+        <v>1.050379302860395</v>
       </c>
       <c r="M12">
-        <v>1.013343107916582</v>
+        <v>1.058873535939454</v>
       </c>
       <c r="N12">
-        <v>1.004927470646954</v>
+        <v>1.019008065833512</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9753011367908961</v>
+        <v>1.03923223711241</v>
       </c>
       <c r="D13">
-        <v>0.9868713454474035</v>
+        <v>1.042253954946598</v>
       </c>
       <c r="E13">
-        <v>0.9936389349207499</v>
+        <v>1.046866555112301</v>
       </c>
       <c r="F13">
-        <v>0.9985230194039394</v>
+        <v>1.055396678997888</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037932683486913</v>
+        <v>1.036752380347239</v>
       </c>
       <c r="J13">
-        <v>1.006092272480583</v>
+        <v>1.045836809610707</v>
       </c>
       <c r="K13">
-        <v>1.002209571618264</v>
+        <v>1.045833119044291</v>
       </c>
       <c r="L13">
-        <v>1.008844578722173</v>
+        <v>1.050428750674246</v>
       </c>
       <c r="M13">
-        <v>1.013634441613223</v>
+        <v>1.058927925997989</v>
       </c>
       <c r="N13">
-        <v>1.005019373575825</v>
+        <v>1.019024482266098</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9765343860210385</v>
+        <v>1.039450359267013</v>
       </c>
       <c r="D14">
-        <v>0.9879619795732962</v>
+        <v>1.042456875306742</v>
       </c>
       <c r="E14">
-        <v>0.9946753267742107</v>
+        <v>1.047060493335978</v>
       </c>
       <c r="F14">
-        <v>0.9996396889919553</v>
+        <v>1.055606568873955</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038252060140783</v>
+        <v>1.036794283461794</v>
       </c>
       <c r="J14">
-        <v>1.006954129769892</v>
+        <v>1.045993890787013</v>
       </c>
       <c r="K14">
-        <v>1.003131815152823</v>
+        <v>1.04600390045561</v>
       </c>
       <c r="L14">
-        <v>1.009715463831977</v>
+        <v>1.050590748159379</v>
       </c>
       <c r="M14">
-        <v>1.014585381237202</v>
+        <v>1.059106119484176</v>
       </c>
       <c r="N14">
-        <v>1.00531929305266</v>
+        <v>1.019078255673836</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9772905448519558</v>
+        <v>1.039584739296625</v>
       </c>
       <c r="D15">
-        <v>0.9886308966933491</v>
+        <v>1.042581896667579</v>
       </c>
       <c r="E15">
-        <v>0.9953110249633512</v>
+        <v>1.047179982483716</v>
       </c>
       <c r="F15">
-        <v>1.000324626985495</v>
+        <v>1.055735887703216</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038447625318803</v>
+        <v>1.036820061188017</v>
       </c>
       <c r="J15">
-        <v>1.007482544332091</v>
+        <v>1.046090650293173</v>
       </c>
       <c r="K15">
-        <v>1.003697310406584</v>
+        <v>1.04610910615156</v>
       </c>
       <c r="L15">
-        <v>1.010249490802557</v>
+        <v>1.050690543392339</v>
       </c>
       <c r="M15">
-        <v>1.015168530338111</v>
+        <v>1.059215895424113</v>
       </c>
       <c r="N15">
-        <v>1.005503167965763</v>
+        <v>1.01911137481586</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9816369897630338</v>
+        <v>1.04036670482315</v>
       </c>
       <c r="D16">
-        <v>0.9924788431796464</v>
+        <v>1.043309506957457</v>
       </c>
       <c r="E16">
-        <v>0.9989686085673037</v>
+        <v>1.047875422893305</v>
       </c>
       <c r="F16">
-        <v>1.00426551562128</v>
+        <v>1.05648856177436</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039567771596158</v>
+        <v>1.036969485819644</v>
       </c>
       <c r="J16">
-        <v>1.01051941384731</v>
+        <v>1.046653476751887</v>
       </c>
       <c r="K16">
-        <v>1.006948153920865</v>
+        <v>1.04672116985758</v>
       </c>
       <c r="L16">
-        <v>1.013319777524025</v>
+        <v>1.051271140213319</v>
       </c>
       <c r="M16">
-        <v>1.01852172692345</v>
+        <v>1.059854612110078</v>
       </c>
       <c r="N16">
-        <v>1.006559770719567</v>
+        <v>1.019303953173119</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9843168337988507</v>
+        <v>1.040857051392501</v>
       </c>
       <c r="D17">
-        <v>0.994853853580117</v>
+        <v>1.043765859586135</v>
       </c>
       <c r="E17">
-        <v>1.001226743809755</v>
+        <v>1.048311622398175</v>
       </c>
       <c r="F17">
-        <v>1.006698562738126</v>
+        <v>1.056960680835818</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040254860166501</v>
+        <v>1.03706267659704</v>
       </c>
       <c r="J17">
-        <v>1.012391325806222</v>
+        <v>1.047006211240243</v>
       </c>
       <c r="K17">
-        <v>1.008952719072395</v>
+        <v>1.047104857273438</v>
       </c>
       <c r="L17">
-        <v>1.015213297898439</v>
+        <v>1.051635110575273</v>
       </c>
       <c r="M17">
-        <v>1.020590152504843</v>
+        <v>1.06025506415956</v>
       </c>
       <c r="N17">
-        <v>1.007210909797072</v>
+        <v>1.019424586159856</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9858637806806739</v>
+        <v>1.041143005705391</v>
       </c>
       <c r="D18">
-        <v>0.9962257091011785</v>
+        <v>1.044032022156945</v>
       </c>
       <c r="E18">
-        <v>1.002531305329324</v>
+        <v>1.048566039344319</v>
       </c>
       <c r="F18">
-        <v>1.00810417766611</v>
+        <v>1.057236055755311</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040650181792778</v>
+        <v>1.037116839004586</v>
       </c>
       <c r="J18">
-        <v>1.013471684146507</v>
+        <v>1.047211843603037</v>
       </c>
       <c r="K18">
-        <v>1.01010991131538</v>
+        <v>1.047328568388133</v>
       </c>
       <c r="L18">
-        <v>1.016306487729838</v>
+        <v>1.051847328678949</v>
       </c>
       <c r="M18">
-        <v>1.02178447350724</v>
+        <v>1.060488570336425</v>
       </c>
       <c r="N18">
-        <v>1.007586651623164</v>
+        <v>1.019494889576399</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9863885649169976</v>
+        <v>1.041240499240998</v>
       </c>
       <c r="D19">
-        <v>0.9966912409825751</v>
+        <v>1.044122773358059</v>
       </c>
       <c r="E19">
-        <v>1.002974037226094</v>
+        <v>1.048652787168896</v>
       </c>
       <c r="F19">
-        <v>1.008581205194355</v>
+        <v>1.05732995085129</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040784067013889</v>
+        <v>1.037135274063142</v>
       </c>
       <c r="J19">
-        <v>1.013838145735796</v>
+        <v>1.047281940037527</v>
       </c>
       <c r="K19">
-        <v>1.010502481820519</v>
+        <v>1.047404833357215</v>
       </c>
       <c r="L19">
-        <v>1.016677362658944</v>
+        <v>1.051919676113926</v>
       </c>
       <c r="M19">
-        <v>1.022189683955417</v>
+        <v>1.060568177971757</v>
       </c>
       <c r="N19">
-        <v>1.007714094397978</v>
+        <v>1.019518851104256</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9840309970526574</v>
+        <v>1.040804447719221</v>
       </c>
       <c r="D20">
-        <v>0.9946004393678415</v>
+        <v>1.04371689937462</v>
       </c>
       <c r="E20">
-        <v>1.000985777665387</v>
+        <v>1.048264823456809</v>
       </c>
       <c r="F20">
-        <v>1.006438931352473</v>
+        <v>1.05691002737435</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040181708783277</v>
+        <v>1.037052698199526</v>
       </c>
       <c r="J20">
-        <v>1.012191685432107</v>
+        <v>1.046968377736234</v>
       </c>
       <c r="K20">
-        <v>1.008738902699689</v>
+        <v>1.047063700286838</v>
       </c>
       <c r="L20">
-        <v>1.015011315480524</v>
+        <v>1.051596068253101</v>
       </c>
       <c r="M20">
-        <v>1.020369497000641</v>
+        <v>1.060212106775816</v>
       </c>
       <c r="N20">
-        <v>1.007141471351561</v>
+        <v>1.019411649568018</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9761719967323583</v>
+        <v>1.03938613028232</v>
       </c>
       <c r="D21">
-        <v>0.9876414552669182</v>
+        <v>1.042397121274552</v>
       </c>
       <c r="E21">
-        <v>0.9943707332586268</v>
+        <v>1.047003383906626</v>
       </c>
       <c r="F21">
-        <v>0.9993115021614587</v>
+        <v>1.055544761801406</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038158265416236</v>
+        <v>1.036781952407402</v>
       </c>
       <c r="J21">
-        <v>1.006700879314618</v>
+        <v>1.045947639172132</v>
       </c>
       <c r="K21">
-        <v>1.002860808699071</v>
+        <v>1.045953613416802</v>
       </c>
       <c r="L21">
-        <v>1.009459544443285</v>
+        <v>1.050543047433444</v>
       </c>
       <c r="M21">
-        <v>1.014305930096068</v>
+        <v>1.059053649061501</v>
       </c>
       <c r="N21">
-        <v>1.005231165789476</v>
+        <v>1.01906242333583</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9710713504069003</v>
+        <v>1.03849384645965</v>
       </c>
       <c r="D22">
-        <v>0.9831338037760619</v>
+        <v>1.041567126703526</v>
       </c>
       <c r="E22">
-        <v>0.9900880368209249</v>
+        <v>1.046210155224069</v>
       </c>
       <c r="F22">
-        <v>0.9946970566792246</v>
+        <v>1.054686312362295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036833475216801</v>
+        <v>1.036609970497776</v>
       </c>
       <c r="J22">
-        <v>1.003135936189907</v>
+        <v>1.045304840602523</v>
       </c>
       <c r="K22">
-        <v>0.9990469549905278</v>
+        <v>1.045254857414827</v>
       </c>
       <c r="L22">
-        <v>1.005858442567541</v>
+        <v>1.049880240997905</v>
       </c>
       <c r="M22">
-        <v>1.010374303008647</v>
+        <v>1.058324629678385</v>
       </c>
       <c r="N22">
-        <v>1.003990467408566</v>
+        <v>1.01884230870292</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9737911180084611</v>
+        <v>1.038966914428819</v>
       </c>
       <c r="D23">
-        <v>0.9855365040812858</v>
+        <v>1.042007142034176</v>
       </c>
       <c r="E23">
-        <v>0.9923706173667191</v>
+        <v>1.046630672006587</v>
       </c>
       <c r="F23">
-        <v>0.9971564569956358</v>
+        <v>1.055141398407775</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037540935508622</v>
+        <v>1.03670130773674</v>
       </c>
       <c r="J23">
-        <v>1.005036926331119</v>
+        <v>1.045645697597802</v>
       </c>
       <c r="K23">
-        <v>1.001080437580791</v>
+        <v>1.04562535774283</v>
       </c>
       <c r="L23">
-        <v>1.007778388848158</v>
+        <v>1.050231677094473</v>
       </c>
       <c r="M23">
-        <v>1.012470333228206</v>
+        <v>1.058711159030719</v>
       </c>
       <c r="N23">
-        <v>1.00465209794081</v>
+        <v>1.018959047218971</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9841602041708122</v>
+        <v>1.040828217229534</v>
       </c>
       <c r="D24">
-        <v>0.9947149877831675</v>
+        <v>1.043739022449163</v>
       </c>
       <c r="E24">
-        <v>1.00109469863203</v>
+        <v>1.048285969917527</v>
       </c>
       <c r="F24">
-        <v>1.00655628932594</v>
+        <v>1.056932915506067</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040214779535728</v>
+        <v>1.037057207607908</v>
       </c>
       <c r="J24">
-        <v>1.012281929754745</v>
+        <v>1.046985473413303</v>
       </c>
       <c r="K24">
-        <v>1.008835554210428</v>
+        <v>1.047082297627143</v>
       </c>
       <c r="L24">
-        <v>1.015102617369709</v>
+        <v>1.051613710044062</v>
       </c>
       <c r="M24">
-        <v>1.020469239190407</v>
+        <v>1.060231517587017</v>
       </c>
       <c r="N24">
-        <v>1.007172860099865</v>
+        <v>1.019417495241701</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9955643835854145</v>
+        <v>1.042985948423521</v>
       </c>
       <c r="D25">
-        <v>1.004842948240441</v>
+        <v>1.045747988856171</v>
       </c>
       <c r="E25">
-        <v>1.010729456973973</v>
+        <v>1.050206432472267</v>
       </c>
       <c r="F25">
-        <v>1.016937515827217</v>
+        <v>1.059011716635626</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043105393289526</v>
+        <v>1.037462593509058</v>
       </c>
       <c r="J25">
-        <v>1.020241951581033</v>
+        <v>1.048535833750497</v>
       </c>
       <c r="K25">
-        <v>1.017366546010405</v>
+        <v>1.048769579163023</v>
       </c>
       <c r="L25">
-        <v>1.023163464336732</v>
+        <v>1.053214364238099</v>
       </c>
       <c r="M25">
-        <v>1.029278467817376</v>
+        <v>1.061993041425344</v>
       </c>
       <c r="N25">
-        <v>1.00994014024679</v>
+        <v>1.019947156127129</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044705284417568</v>
+        <v>1.004216201556317</v>
       </c>
       <c r="D2">
-        <v>1.047349785034542</v>
+        <v>1.012549853322309</v>
       </c>
       <c r="E2">
-        <v>1.051737923372595</v>
+        <v>1.018066866746988</v>
       </c>
       <c r="F2">
-        <v>1.0606697192026</v>
+        <v>1.024843814059907</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037779805521828</v>
+        <v>1.045255833559665</v>
       </c>
       <c r="J2">
-        <v>1.049768939149611</v>
+        <v>1.026271533924267</v>
       </c>
       <c r="K2">
-        <v>1.050112669623495</v>
+        <v>1.023837074256012</v>
       </c>
       <c r="L2">
-        <v>1.054488594488906</v>
+        <v>1.029280111209929</v>
       </c>
       <c r="M2">
-        <v>1.063395868606503</v>
+        <v>1.035967554092464</v>
       </c>
       <c r="N2">
-        <v>1.020367742962661</v>
+        <v>1.012033974906792</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045952768263674</v>
+        <v>1.010267676075726</v>
       </c>
       <c r="D3">
-        <v>1.048512554600585</v>
+        <v>1.017952471430424</v>
       </c>
       <c r="E3">
-        <v>1.052849805471249</v>
+        <v>1.02321350031382</v>
       </c>
       <c r="F3">
-        <v>1.061873592691342</v>
+        <v>1.030389839833297</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03800658802673</v>
+        <v>1.046734224113226</v>
       </c>
       <c r="J3">
-        <v>1.050662313420207</v>
+        <v>1.030482294357193</v>
       </c>
       <c r="K3">
-        <v>1.051086355557237</v>
+        <v>1.028360686613283</v>
       </c>
       <c r="L3">
-        <v>1.055412413816581</v>
+        <v>1.033557731840589</v>
       </c>
       <c r="M3">
-        <v>1.064413230265951</v>
+        <v>1.040648099909977</v>
       </c>
       <c r="N3">
-        <v>1.020672052285571</v>
+        <v>1.013494611761589</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046759573573921</v>
+        <v>1.014084676743657</v>
       </c>
       <c r="D4">
-        <v>1.049264830246337</v>
+        <v>1.021365366303276</v>
       </c>
       <c r="E4">
-        <v>1.053569226102874</v>
+        <v>1.026465996452913</v>
       </c>
       <c r="F4">
-        <v>1.062652600757053</v>
+        <v>1.033894942834931</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038151695725416</v>
+        <v>1.047654468125324</v>
       </c>
       <c r="J4">
-        <v>1.051239486644071</v>
+        <v>1.033134830475095</v>
       </c>
       <c r="K4">
-        <v>1.051715705986755</v>
+        <v>1.031212591410026</v>
       </c>
       <c r="L4">
-        <v>1.056009557178154</v>
+        <v>1.036255158290085</v>
       </c>
       <c r="M4">
-        <v>1.065070981112206</v>
+        <v>1.043600797894732</v>
       </c>
       <c r="N4">
-        <v>1.020868467069257</v>
+        <v>1.014413914885659</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047098661206075</v>
+        <v>1.015666803204546</v>
       </c>
       <c r="D5">
-        <v>1.049581061338056</v>
+        <v>1.022781175136347</v>
       </c>
       <c r="E5">
-        <v>1.053871662095667</v>
+        <v>1.027815566540546</v>
       </c>
       <c r="F5">
-        <v>1.062980102542939</v>
+        <v>1.035349382543931</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038212307745903</v>
+        <v>1.048032910582799</v>
       </c>
       <c r="J5">
-        <v>1.051481916329845</v>
+        <v>1.034233418815358</v>
       </c>
       <c r="K5">
-        <v>1.051980121371048</v>
+        <v>1.032394303604733</v>
       </c>
       <c r="L5">
-        <v>1.056260446915264</v>
+        <v>1.037373000374764</v>
       </c>
       <c r="M5">
-        <v>1.065347369334207</v>
+        <v>1.044824711914868</v>
       </c>
       <c r="N5">
-        <v>1.020950922033975</v>
+        <v>1.014794451873706</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04715559011118</v>
+        <v>1.015931157750299</v>
       </c>
       <c r="D6">
-        <v>1.049634156478746</v>
+        <v>1.023017807891872</v>
       </c>
       <c r="E6">
-        <v>1.053922441977581</v>
+        <v>1.028041145758669</v>
       </c>
       <c r="F6">
-        <v>1.06303509198073</v>
+        <v>1.035592493969566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038222461837395</v>
+        <v>1.04809596629468</v>
       </c>
       <c r="J6">
-        <v>1.051522608837338</v>
+        <v>1.034416927031419</v>
       </c>
       <c r="K6">
-        <v>1.052024508331987</v>
+        <v>1.032591729393559</v>
       </c>
       <c r="L6">
-        <v>1.056302563689093</v>
+        <v>1.037559763561274</v>
       </c>
       <c r="M6">
-        <v>1.065393768538804</v>
+        <v>1.04502921376027</v>
       </c>
       <c r="N6">
-        <v>1.020964759687967</v>
+        <v>1.014858004318743</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046764104843052</v>
+        <v>1.014105904375589</v>
       </c>
       <c r="D7">
-        <v>1.049269055840089</v>
+        <v>1.021384357824763</v>
       </c>
       <c r="E7">
-        <v>1.053573267298738</v>
+        <v>1.026484098280141</v>
       </c>
       <c r="F7">
-        <v>1.062656976823169</v>
+        <v>1.033914451059191</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038152507163142</v>
+        <v>1.047659557651902</v>
       </c>
       <c r="J7">
-        <v>1.051242726840233</v>
+        <v>1.033149573924679</v>
       </c>
       <c r="K7">
-        <v>1.051719239758752</v>
+        <v>1.031228448223095</v>
       </c>
       <c r="L7">
-        <v>1.056012910164166</v>
+        <v>1.036270157518375</v>
       </c>
       <c r="M7">
-        <v>1.065074674735048</v>
+        <v>1.043617219273668</v>
       </c>
       <c r="N7">
-        <v>1.020869569298972</v>
+        <v>1.014419022659712</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045126961771371</v>
+        <v>1.00628244407491</v>
       </c>
       <c r="D8">
-        <v>1.047742773089542</v>
+        <v>1.014393424884747</v>
       </c>
       <c r="E8">
-        <v>1.05211369860509</v>
+        <v>1.019822803515263</v>
       </c>
       <c r="F8">
-        <v>1.061076570455282</v>
+        <v>1.026735976483534</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037856786631745</v>
+        <v>1.045763168477581</v>
       </c>
       <c r="J8">
-        <v>1.050071046320335</v>
+        <v>1.027709962423651</v>
       </c>
       <c r="K8">
-        <v>1.050441875024809</v>
+        <v>1.025381894814203</v>
       </c>
       <c r="L8">
-        <v>1.054800934731333</v>
+        <v>1.030740793560295</v>
       </c>
       <c r="M8">
-        <v>1.063739805552426</v>
+        <v>1.037565572323137</v>
       </c>
       <c r="N8">
-        <v>1.020470688176874</v>
+        <v>1.01253310424625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04223893053545</v>
+        <v>0.9916873975514705</v>
       </c>
       <c r="D9">
-        <v>1.045052317762241</v>
+        <v>1.001395920932474</v>
       </c>
       <c r="E9">
-        <v>1.049541367973866</v>
+        <v>1.007449321150074</v>
       </c>
       <c r="F9">
-        <v>1.058291781356711</v>
+        <v>1.01340319872256</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037323145653888</v>
+        <v>1.042129286551567</v>
       </c>
       <c r="J9">
-        <v>1.047999440004797</v>
+        <v>1.017537149163769</v>
       </c>
       <c r="K9">
-        <v>1.048185645756952</v>
+        <v>1.014466390820058</v>
       </c>
       <c r="L9">
-        <v>1.052660395735892</v>
+        <v>1.020422683531227</v>
       </c>
       <c r="M9">
-        <v>1.061383315046018</v>
+        <v>1.026282497834847</v>
       </c>
       <c r="N9">
-        <v>1.019764010202407</v>
+        <v>1.009000158910531</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040311283217446</v>
+        <v>0.9813319108509974</v>
       </c>
       <c r="D10">
-        <v>1.043257931933236</v>
+        <v>0.9922085889963582</v>
       </c>
       <c r="E10">
-        <v>1.047826126637655</v>
+        <v>0.9987116836651474</v>
       </c>
       <c r="F10">
-        <v>1.056435207164796</v>
+        <v>1.003988690042488</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036958928076332</v>
+        <v>1.039489375915714</v>
       </c>
       <c r="J10">
-        <v>1.046613599201845</v>
+        <v>1.010306285183514</v>
       </c>
       <c r="K10">
-        <v>1.046677797632379</v>
+        <v>1.006719959316881</v>
       </c>
       <c r="L10">
-        <v>1.051229997239372</v>
+        <v>1.013104238086533</v>
       </c>
       <c r="M10">
-        <v>1.059809347558341</v>
+        <v>1.018286298984411</v>
       </c>
       <c r="N10">
-        <v>1.019290312385488</v>
+        <v>1.006485627034399</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039476010916649</v>
+        <v>0.9766789404268087</v>
       </c>
       <c r="D11">
-        <v>1.042480740089707</v>
+        <v>0.9880898441784179</v>
       </c>
       <c r="E11">
-        <v>1.047083301994256</v>
+        <v>0.9947968386227206</v>
       </c>
       <c r="F11">
-        <v>1.05563125377692</v>
+        <v>0.9997706129181883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036799206373501</v>
+        <v>1.038289461545656</v>
       </c>
       <c r="J11">
-        <v>1.046012361958761</v>
+        <v>1.007055148143218</v>
       </c>
       <c r="K11">
-        <v>1.046023983569242</v>
+        <v>1.003239918956449</v>
       </c>
       <c r="L11">
-        <v>1.050609798410408</v>
+        <v>1.009817550579588</v>
       </c>
       <c r="M11">
-        <v>1.059127074780243</v>
+        <v>1.014696856440412</v>
       </c>
       <c r="N11">
-        <v>1.019084578304429</v>
+        <v>1.005354445445019</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039165662027384</v>
+        <v>0.9749232674196602</v>
       </c>
       <c r="D12">
-        <v>1.042192022461044</v>
+        <v>0.9865372552732623</v>
       </c>
       <c r="E12">
-        <v>1.046807364736684</v>
+        <v>0.9933214805821939</v>
       </c>
       <c r="F12">
-        <v>1.055332620762268</v>
+        <v>0.9981809750868251</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036739575630699</v>
+        <v>1.037834722985747</v>
       </c>
       <c r="J12">
-        <v>1.045788859595704</v>
+        <v>1.005828187739414</v>
       </c>
       <c r="K12">
-        <v>1.045780989763311</v>
+        <v>1.001927006631415</v>
       </c>
       <c r="L12">
-        <v>1.050379302860395</v>
+        <v>1.008577758824307</v>
       </c>
       <c r="M12">
-        <v>1.058873535939454</v>
+        <v>1.013343107916582</v>
       </c>
       <c r="N12">
-        <v>1.019008065833512</v>
+        <v>1.004927470646954</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03923223711241</v>
+        <v>0.975301136790896</v>
       </c>
       <c r="D13">
-        <v>1.042253954946598</v>
+        <v>0.986871345447403</v>
       </c>
       <c r="E13">
-        <v>1.046866555112301</v>
+        <v>0.9936389349207495</v>
       </c>
       <c r="F13">
-        <v>1.055396678997888</v>
+        <v>0.9985230194039394</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036752380347239</v>
+        <v>1.037932683486913</v>
       </c>
       <c r="J13">
-        <v>1.045836809610707</v>
+        <v>1.006092272480583</v>
       </c>
       <c r="K13">
-        <v>1.045833119044291</v>
+        <v>1.002209571618263</v>
       </c>
       <c r="L13">
-        <v>1.050428750674246</v>
+        <v>1.008844578722172</v>
       </c>
       <c r="M13">
-        <v>1.058927925997989</v>
+        <v>1.013634441613223</v>
       </c>
       <c r="N13">
-        <v>1.019024482266098</v>
+        <v>1.005019373575825</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039450359267013</v>
+        <v>0.9765343860210368</v>
       </c>
       <c r="D14">
-        <v>1.042456875306742</v>
+        <v>0.9879619795732947</v>
       </c>
       <c r="E14">
-        <v>1.047060493335978</v>
+        <v>0.9946753267742094</v>
       </c>
       <c r="F14">
-        <v>1.055606568873955</v>
+        <v>0.999639688991954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036794283461794</v>
+        <v>1.038252060140783</v>
       </c>
       <c r="J14">
-        <v>1.045993890787013</v>
+        <v>1.006954129769891</v>
       </c>
       <c r="K14">
-        <v>1.04600390045561</v>
+        <v>1.003131815152822</v>
       </c>
       <c r="L14">
-        <v>1.050590748159379</v>
+        <v>1.009715463831976</v>
       </c>
       <c r="M14">
-        <v>1.059106119484176</v>
+        <v>1.014585381237201</v>
       </c>
       <c r="N14">
-        <v>1.019078255673836</v>
+        <v>1.005319293052659</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039584739296625</v>
+        <v>0.9772905448519554</v>
       </c>
       <c r="D15">
-        <v>1.042581896667579</v>
+        <v>0.9886308966933488</v>
       </c>
       <c r="E15">
-        <v>1.047179982483716</v>
+        <v>0.9953110249633508</v>
       </c>
       <c r="F15">
-        <v>1.055735887703216</v>
+        <v>1.000324626985494</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036820061188017</v>
+        <v>1.038447625318802</v>
       </c>
       <c r="J15">
-        <v>1.046090650293173</v>
+        <v>1.007482544332091</v>
       </c>
       <c r="K15">
-        <v>1.04610910615156</v>
+        <v>1.003697310406583</v>
       </c>
       <c r="L15">
-        <v>1.050690543392339</v>
+        <v>1.010249490802557</v>
       </c>
       <c r="M15">
-        <v>1.059215895424113</v>
+        <v>1.01516853033811</v>
       </c>
       <c r="N15">
-        <v>1.01911137481586</v>
+        <v>1.005503167965763</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04036670482315</v>
+        <v>0.981636989763034</v>
       </c>
       <c r="D16">
-        <v>1.043309506957457</v>
+        <v>0.9924788431796469</v>
       </c>
       <c r="E16">
-        <v>1.047875422893305</v>
+        <v>0.9989686085673041</v>
       </c>
       <c r="F16">
-        <v>1.05648856177436</v>
+        <v>1.00426551562128</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036969485819644</v>
+        <v>1.039567771596159</v>
       </c>
       <c r="J16">
-        <v>1.046653476751887</v>
+        <v>1.010519413847311</v>
       </c>
       <c r="K16">
-        <v>1.04672116985758</v>
+        <v>1.006948153920866</v>
       </c>
       <c r="L16">
-        <v>1.051271140213319</v>
+        <v>1.013319777524025</v>
       </c>
       <c r="M16">
-        <v>1.059854612110078</v>
+        <v>1.01852172692345</v>
       </c>
       <c r="N16">
-        <v>1.019303953173119</v>
+        <v>1.006559770719567</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040857051392501</v>
+        <v>0.9843168337988493</v>
       </c>
       <c r="D17">
-        <v>1.043765859586135</v>
+        <v>0.9948538535801156</v>
       </c>
       <c r="E17">
-        <v>1.048311622398175</v>
+        <v>1.001226743809754</v>
       </c>
       <c r="F17">
-        <v>1.056960680835818</v>
+        <v>1.006698562738124</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03706267659704</v>
+        <v>1.040254860166501</v>
       </c>
       <c r="J17">
-        <v>1.047006211240243</v>
+        <v>1.012391325806221</v>
       </c>
       <c r="K17">
-        <v>1.047104857273438</v>
+        <v>1.008952719072393</v>
       </c>
       <c r="L17">
-        <v>1.051635110575273</v>
+        <v>1.015213297898438</v>
       </c>
       <c r="M17">
-        <v>1.06025506415956</v>
+        <v>1.020590152504841</v>
       </c>
       <c r="N17">
-        <v>1.019424586159856</v>
+        <v>1.007210909797072</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041143005705391</v>
+        <v>0.9858637806806749</v>
       </c>
       <c r="D18">
-        <v>1.044032022156945</v>
+        <v>0.9962257091011796</v>
       </c>
       <c r="E18">
-        <v>1.048566039344319</v>
+        <v>1.002531305329325</v>
       </c>
       <c r="F18">
-        <v>1.057236055755311</v>
+        <v>1.008104177666111</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037116839004586</v>
+        <v>1.040650181792778</v>
       </c>
       <c r="J18">
-        <v>1.047211843603037</v>
+        <v>1.013471684146508</v>
       </c>
       <c r="K18">
-        <v>1.047328568388133</v>
+        <v>1.010109911315381</v>
       </c>
       <c r="L18">
-        <v>1.051847328678949</v>
+        <v>1.016306487729838</v>
       </c>
       <c r="M18">
-        <v>1.060488570336425</v>
+        <v>1.021784473507241</v>
       </c>
       <c r="N18">
-        <v>1.019494889576399</v>
+        <v>1.007586651623164</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041240499240998</v>
+        <v>0.9863885649169967</v>
       </c>
       <c r="D19">
-        <v>1.044122773358059</v>
+        <v>0.9966912409825746</v>
       </c>
       <c r="E19">
-        <v>1.048652787168896</v>
+        <v>1.002974037226093</v>
       </c>
       <c r="F19">
-        <v>1.05732995085129</v>
+        <v>1.008581205194354</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037135274063142</v>
+        <v>1.040784067013889</v>
       </c>
       <c r="J19">
-        <v>1.047281940037527</v>
+        <v>1.013838145735795</v>
       </c>
       <c r="K19">
-        <v>1.047404833357215</v>
+        <v>1.010502481820518</v>
       </c>
       <c r="L19">
-        <v>1.051919676113926</v>
+        <v>1.016677362658942</v>
       </c>
       <c r="M19">
-        <v>1.060568177971757</v>
+        <v>1.022189683955415</v>
       </c>
       <c r="N19">
-        <v>1.019518851104256</v>
+        <v>1.007714094397977</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040804447719221</v>
+        <v>0.9840309970526566</v>
       </c>
       <c r="D20">
-        <v>1.04371689937462</v>
+        <v>0.9946004393678406</v>
       </c>
       <c r="E20">
-        <v>1.048264823456809</v>
+        <v>1.000985777665387</v>
       </c>
       <c r="F20">
-        <v>1.05691002737435</v>
+        <v>1.006438931352473</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037052698199526</v>
+        <v>1.040181708783277</v>
       </c>
       <c r="J20">
-        <v>1.046968377736234</v>
+        <v>1.012191685432106</v>
       </c>
       <c r="K20">
-        <v>1.047063700286838</v>
+        <v>1.008738902699688</v>
       </c>
       <c r="L20">
-        <v>1.051596068253101</v>
+        <v>1.015011315480524</v>
       </c>
       <c r="M20">
-        <v>1.060212106775816</v>
+        <v>1.02036949700064</v>
       </c>
       <c r="N20">
-        <v>1.019411649568018</v>
+        <v>1.007141471351561</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03938613028232</v>
+        <v>0.9761719967323571</v>
       </c>
       <c r="D21">
-        <v>1.042397121274552</v>
+        <v>0.9876414552669167</v>
       </c>
       <c r="E21">
-        <v>1.047003383906626</v>
+        <v>0.9943707332586255</v>
       </c>
       <c r="F21">
-        <v>1.055544761801406</v>
+        <v>0.9993115021614576</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036781952407402</v>
+        <v>1.038158265416235</v>
       </c>
       <c r="J21">
-        <v>1.045947639172132</v>
+        <v>1.006700879314617</v>
       </c>
       <c r="K21">
-        <v>1.045953613416802</v>
+        <v>1.00286080869907</v>
       </c>
       <c r="L21">
-        <v>1.050543047433444</v>
+        <v>1.009459544443284</v>
       </c>
       <c r="M21">
-        <v>1.059053649061501</v>
+        <v>1.014305930096066</v>
       </c>
       <c r="N21">
-        <v>1.01906242333583</v>
+        <v>1.005231165789475</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03849384645965</v>
+        <v>0.9710713504068988</v>
       </c>
       <c r="D22">
-        <v>1.041567126703526</v>
+        <v>0.9831338037760604</v>
       </c>
       <c r="E22">
-        <v>1.046210155224069</v>
+        <v>0.9900880368209235</v>
       </c>
       <c r="F22">
-        <v>1.054686312362295</v>
+        <v>0.9946970566792234</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036609970497776</v>
+        <v>1.036833475216801</v>
       </c>
       <c r="J22">
-        <v>1.045304840602523</v>
+        <v>1.003135936189906</v>
       </c>
       <c r="K22">
-        <v>1.045254857414827</v>
+        <v>0.9990469549905263</v>
       </c>
       <c r="L22">
-        <v>1.049880240997905</v>
+        <v>1.005858442567539</v>
       </c>
       <c r="M22">
-        <v>1.058324629678385</v>
+        <v>1.010374303008646</v>
       </c>
       <c r="N22">
-        <v>1.01884230870292</v>
+        <v>1.003990467408565</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038966914428819</v>
+        <v>0.97379111800846</v>
       </c>
       <c r="D23">
-        <v>1.042007142034176</v>
+        <v>0.9855365040812842</v>
       </c>
       <c r="E23">
-        <v>1.046630672006587</v>
+        <v>0.9923706173667179</v>
       </c>
       <c r="F23">
-        <v>1.055141398407775</v>
+        <v>0.9971564569956347</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03670130773674</v>
+        <v>1.037540935508622</v>
       </c>
       <c r="J23">
-        <v>1.045645697597802</v>
+        <v>1.005036926331117</v>
       </c>
       <c r="K23">
-        <v>1.04562535774283</v>
+        <v>1.00108043758079</v>
       </c>
       <c r="L23">
-        <v>1.050231677094473</v>
+        <v>1.007778388848157</v>
       </c>
       <c r="M23">
-        <v>1.058711159030719</v>
+        <v>1.012470333228205</v>
       </c>
       <c r="N23">
-        <v>1.018959047218971</v>
+        <v>1.00465209794081</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040828217229534</v>
+        <v>0.9841602041708122</v>
       </c>
       <c r="D24">
-        <v>1.043739022449163</v>
+        <v>0.9947149877831675</v>
       </c>
       <c r="E24">
-        <v>1.048285969917527</v>
+        <v>1.00109469863203</v>
       </c>
       <c r="F24">
-        <v>1.056932915506067</v>
+        <v>1.006556289325939</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037057207607908</v>
+        <v>1.040214779535728</v>
       </c>
       <c r="J24">
-        <v>1.046985473413303</v>
+        <v>1.012281929754745</v>
       </c>
       <c r="K24">
-        <v>1.047082297627143</v>
+        <v>1.008835554210428</v>
       </c>
       <c r="L24">
-        <v>1.051613710044062</v>
+        <v>1.015102617369709</v>
       </c>
       <c r="M24">
-        <v>1.060231517587017</v>
+        <v>1.020469239190407</v>
       </c>
       <c r="N24">
-        <v>1.019417495241701</v>
+        <v>1.007172860099864</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042985948423521</v>
+        <v>0.9955643835854139</v>
       </c>
       <c r="D25">
-        <v>1.045747988856171</v>
+        <v>1.004842948240441</v>
       </c>
       <c r="E25">
-        <v>1.050206432472267</v>
+        <v>1.010729456973972</v>
       </c>
       <c r="F25">
-        <v>1.059011716635626</v>
+        <v>1.016937515827217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037462593509058</v>
+        <v>1.043105393289526</v>
       </c>
       <c r="J25">
-        <v>1.048535833750497</v>
+        <v>1.020241951581032</v>
       </c>
       <c r="K25">
-        <v>1.048769579163023</v>
+        <v>1.017366546010405</v>
       </c>
       <c r="L25">
-        <v>1.053214364238099</v>
+        <v>1.023163464336731</v>
       </c>
       <c r="M25">
-        <v>1.061993041425344</v>
+        <v>1.029278467817376</v>
       </c>
       <c r="N25">
-        <v>1.019947156127129</v>
+        <v>1.00994014024679</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004216201556317</v>
+        <v>0.9841303958688429</v>
       </c>
       <c r="D2">
-        <v>1.012549853322309</v>
+        <v>1.002159733341258</v>
       </c>
       <c r="E2">
-        <v>1.018066866746988</v>
+        <v>0.9928104176922159</v>
       </c>
       <c r="F2">
-        <v>1.024843814059907</v>
+        <v>0.9996496454729843</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045255833559665</v>
+        <v>1.037333188125579</v>
       </c>
       <c r="J2">
-        <v>1.026271533924267</v>
+        <v>1.006796351001984</v>
       </c>
       <c r="K2">
-        <v>1.023837074256012</v>
+        <v>1.013589061429335</v>
       </c>
       <c r="L2">
-        <v>1.029280111209929</v>
+        <v>1.004370831952979</v>
       </c>
       <c r="M2">
-        <v>1.035967554092464</v>
+        <v>1.011113863449382</v>
       </c>
       <c r="N2">
-        <v>1.012033974906792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.006343573451409</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.017367885168782</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.020678347276893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010267676075726</v>
+        <v>0.9892789327368208</v>
       </c>
       <c r="D3">
-        <v>1.017952471430424</v>
+        <v>1.006649374890318</v>
       </c>
       <c r="E3">
-        <v>1.02321350031382</v>
+        <v>0.9969363485897286</v>
       </c>
       <c r="F3">
-        <v>1.030389839833297</v>
+        <v>1.006145441860794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046734224113226</v>
+        <v>1.040270181983266</v>
       </c>
       <c r="J3">
-        <v>1.030482294357193</v>
+        <v>1.010066193899959</v>
       </c>
       <c r="K3">
-        <v>1.028360686613283</v>
+        <v>1.017197876865063</v>
       </c>
       <c r="L3">
-        <v>1.033557731840589</v>
+        <v>1.007608580078807</v>
       </c>
       <c r="M3">
-        <v>1.040648099909977</v>
+        <v>1.016700289883413</v>
       </c>
       <c r="N3">
-        <v>1.013494611761589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.007428838894742</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.021789300547613</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.02322749861148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014084676743657</v>
+        <v>0.9924942016300109</v>
       </c>
       <c r="D4">
-        <v>1.021365366303276</v>
+        <v>1.009436989862721</v>
       </c>
       <c r="E4">
-        <v>1.026465996452913</v>
+        <v>0.9995173132207149</v>
       </c>
       <c r="F4">
-        <v>1.033894942834931</v>
+        <v>1.01011719466726</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047654468125324</v>
+        <v>1.041996956096242</v>
       </c>
       <c r="J4">
-        <v>1.033134830475095</v>
+        <v>1.012091874950076</v>
       </c>
       <c r="K4">
-        <v>1.031212591410026</v>
+        <v>1.019422837530202</v>
       </c>
       <c r="L4">
-        <v>1.036255158290085</v>
+        <v>1.009621567339654</v>
       </c>
       <c r="M4">
-        <v>1.043600797894732</v>
+        <v>1.020095028550341</v>
       </c>
       <c r="N4">
-        <v>1.014413914885659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008101151252643</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.02447607544017</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.024801728069758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015666803204546</v>
+        <v>0.9938234143393314</v>
       </c>
       <c r="D5">
-        <v>1.022781175136347</v>
+        <v>1.010587664449849</v>
       </c>
       <c r="E5">
-        <v>1.027815566540546</v>
+        <v>1.000585647067034</v>
       </c>
       <c r="F5">
-        <v>1.035349382543931</v>
+        <v>1.011739257509512</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048032910582799</v>
+        <v>1.042684905818078</v>
       </c>
       <c r="J5">
-        <v>1.034233418815358</v>
+        <v>1.012926751308897</v>
       </c>
       <c r="K5">
-        <v>1.032394303604733</v>
+        <v>1.020338524944734</v>
       </c>
       <c r="L5">
-        <v>1.037373000374764</v>
+        <v>1.010452586084313</v>
       </c>
       <c r="M5">
-        <v>1.044824711914868</v>
+        <v>1.021476935013289</v>
       </c>
       <c r="N5">
-        <v>1.014794451873706</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.008378517256133</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.025569785915128</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.025456539845142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015931157750299</v>
+        <v>0.9940491133320303</v>
       </c>
       <c r="D6">
-        <v>1.023017807891872</v>
+        <v>1.010785056962766</v>
       </c>
       <c r="E6">
-        <v>1.028041145758669</v>
+        <v>1.000767476346152</v>
       </c>
       <c r="F6">
-        <v>1.035592493969566</v>
+        <v>1.01201253873493</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04809596629468</v>
+        <v>1.042798671916407</v>
       </c>
       <c r="J6">
-        <v>1.034416927031419</v>
+        <v>1.013069682010017</v>
       </c>
       <c r="K6">
-        <v>1.032591729393559</v>
+        <v>1.020496488296298</v>
       </c>
       <c r="L6">
-        <v>1.037559763561274</v>
+        <v>1.01059461232206</v>
       </c>
       <c r="M6">
-        <v>1.04502921376027</v>
+        <v>1.021709986773947</v>
       </c>
       <c r="N6">
-        <v>1.014858004318743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008426342126922</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.025754234660143</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.025577155428744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014105904375589</v>
+        <v>0.9925227601284053</v>
       </c>
       <c r="D7">
-        <v>1.021384357824763</v>
+        <v>1.009467625093656</v>
       </c>
       <c r="E7">
-        <v>1.026484098280141</v>
+        <v>0.9995412507049672</v>
       </c>
       <c r="F7">
-        <v>1.033914451059191</v>
+        <v>1.010149250772713</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047659557651902</v>
+        <v>1.042007436851887</v>
       </c>
       <c r="J7">
-        <v>1.033149573924679</v>
+        <v>1.012113526371289</v>
       </c>
       <c r="K7">
-        <v>1.031228448223095</v>
+        <v>1.01945014800008</v>
       </c>
       <c r="L7">
-        <v>1.036270157518375</v>
+        <v>1.009642212253827</v>
       </c>
       <c r="M7">
-        <v>1.043617219273668</v>
+        <v>1.02012374646424</v>
       </c>
       <c r="N7">
-        <v>1.014419022659712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008109271286125</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.024498804263583</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.024841563649551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00628244407491</v>
+        <v>0.9859091998441875</v>
       </c>
       <c r="D8">
-        <v>1.014393424884747</v>
+        <v>1.003721663415127</v>
       </c>
       <c r="E8">
-        <v>1.019822803515263</v>
+        <v>0.9942362967372164</v>
       </c>
       <c r="F8">
-        <v>1.026735976483534</v>
+        <v>1.001908690291864</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045763168477581</v>
+        <v>1.038365351161849</v>
       </c>
       <c r="J8">
-        <v>1.027709962423651</v>
+        <v>1.007934194619092</v>
       </c>
       <c r="K8">
-        <v>1.025381894814203</v>
+        <v>1.014851457301787</v>
       </c>
       <c r="L8">
-        <v>1.030740793560295</v>
+        <v>1.005494911251871</v>
       </c>
       <c r="M8">
-        <v>1.037565572323137</v>
+        <v>1.01306286908012</v>
       </c>
       <c r="N8">
-        <v>1.01253310424625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.006722448374326</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.018910442325371</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.021594464946708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9916873975514705</v>
+        <v>0.9732334319644379</v>
       </c>
       <c r="D9">
-        <v>1.001395920932474</v>
+        <v>0.9925454890135654</v>
       </c>
       <c r="E9">
-        <v>1.007449321150074</v>
+        <v>0.9841014943325981</v>
       </c>
       <c r="F9">
-        <v>1.01340319872256</v>
+        <v>0.9853332816292507</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042129286551567</v>
+        <v>1.030427819125865</v>
       </c>
       <c r="J9">
-        <v>1.017537149163769</v>
+        <v>0.9997681303105781</v>
       </c>
       <c r="K9">
-        <v>1.014466390820058</v>
+        <v>1.005760679495498</v>
       </c>
       <c r="L9">
-        <v>1.020422683531227</v>
+        <v>0.9974578901516709</v>
       </c>
       <c r="M9">
-        <v>1.026282497834847</v>
+        <v>0.9986688843231788</v>
       </c>
       <c r="N9">
-        <v>1.009000158910531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.004011011960589</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.007518114443625</v>
+      </c>
+      <c r="Q9">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R9">
+        <v>1.015163043663527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9813319108509974</v>
+        <v>0.9639078893613321</v>
       </c>
       <c r="D10">
-        <v>0.9922085889963582</v>
+        <v>0.9841761869171444</v>
       </c>
       <c r="E10">
-        <v>0.9987116836651474</v>
+        <v>0.9766689809525579</v>
       </c>
       <c r="F10">
-        <v>1.003988690042488</v>
+        <v>0.9724497602016337</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039489375915714</v>
+        <v>1.023757962925296</v>
       </c>
       <c r="J10">
-        <v>1.010306285183514</v>
+        <v>0.9936304539162328</v>
       </c>
       <c r="K10">
-        <v>1.006719959316881</v>
+        <v>0.9988371460854847</v>
       </c>
       <c r="L10">
-        <v>1.013104238086533</v>
+        <v>0.991472660776235</v>
       </c>
       <c r="M10">
-        <v>1.018286298984411</v>
+        <v>0.9873349203987052</v>
       </c>
       <c r="N10">
-        <v>1.006485627034399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001978270471058</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.998601595578721</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.010284683109554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9766789404268087</v>
+        <v>0.9596240201642697</v>
       </c>
       <c r="D11">
-        <v>0.9880898441784179</v>
+        <v>0.9802565972716363</v>
       </c>
       <c r="E11">
-        <v>0.9947968386227206</v>
+        <v>0.9732769361233939</v>
       </c>
       <c r="F11">
-        <v>0.9997706129181883</v>
+        <v>0.9664925609532362</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038289461545656</v>
+        <v>1.020447369632278</v>
       </c>
       <c r="J11">
-        <v>1.007055148143218</v>
+        <v>0.9907785973510927</v>
       </c>
       <c r="K11">
-        <v>1.003239918956449</v>
+        <v>0.99556070369323</v>
       </c>
       <c r="L11">
-        <v>1.009817550579588</v>
+        <v>0.9887210412066353</v>
       </c>
       <c r="M11">
-        <v>1.014696856440412</v>
+        <v>0.9820753060538845</v>
       </c>
       <c r="N11">
-        <v>1.005354445445019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.001074901368746</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.99489830113903</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.008001958778334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9749232674196602</v>
+        <v>0.9579082787923923</v>
       </c>
       <c r="D12">
-        <v>0.9865372552732623</v>
+        <v>0.9786350678310906</v>
       </c>
       <c r="E12">
-        <v>0.9933214805821939</v>
+        <v>0.97192043304596</v>
       </c>
       <c r="F12">
-        <v>0.9981809750868251</v>
+        <v>0.9641110073759575</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037834722985747</v>
+        <v>1.019125131104409</v>
       </c>
       <c r="J12">
-        <v>1.005828187739414</v>
+        <v>0.989607402940989</v>
       </c>
       <c r="K12">
-        <v>1.001927006631415</v>
+        <v>0.9941833612261562</v>
       </c>
       <c r="L12">
-        <v>1.008577758824307</v>
+        <v>0.987606117549686</v>
       </c>
       <c r="M12">
-        <v>1.013343107916582</v>
+        <v>0.9799596701254063</v>
       </c>
       <c r="N12">
-        <v>1.004927470646954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000719508130579</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.9935673146552818</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.007028062011434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.975301136790896</v>
+        <v>0.9581549959981143</v>
       </c>
       <c r="D13">
-        <v>0.986871345447403</v>
+        <v>0.9787971851086315</v>
       </c>
       <c r="E13">
-        <v>0.9936389349207495</v>
+        <v>0.9721211153720608</v>
       </c>
       <c r="F13">
-        <v>0.9985230194039394</v>
+        <v>0.9645623418037481</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037932683486913</v>
+        <v>1.019403530379181</v>
       </c>
       <c r="J13">
-        <v>1.006092272480583</v>
+        <v>0.9897427642968621</v>
       </c>
       <c r="K13">
-        <v>1.002209571618263</v>
+        <v>0.9942967492658308</v>
       </c>
       <c r="L13">
-        <v>1.008844578722172</v>
+        <v>0.9877567521689535</v>
       </c>
       <c r="M13">
-        <v>1.013634441613223</v>
+        <v>0.9803550503733188</v>
       </c>
       <c r="N13">
-        <v>1.005019373575825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.000793271147965</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>0.9941684423402588</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.007105647254401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9765343860210368</v>
+        <v>0.9592160765600476</v>
       </c>
       <c r="D14">
-        <v>0.9879619795732947</v>
+        <v>0.9797181301606336</v>
       </c>
       <c r="E14">
-        <v>0.9946753267742094</v>
+        <v>0.9729662234785245</v>
       </c>
       <c r="F14">
-        <v>0.999639688991954</v>
+        <v>0.9661576919921212</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038252060140783</v>
+        <v>1.02031985056864</v>
       </c>
       <c r="J14">
-        <v>1.006954129769891</v>
+        <v>0.9904280026444734</v>
       </c>
       <c r="K14">
-        <v>1.003131815152822</v>
+        <v>0.9950504301104364</v>
       </c>
       <c r="L14">
-        <v>1.009715463831976</v>
+        <v>0.9884342879171475</v>
       </c>
       <c r="M14">
-        <v>1.014585381237201</v>
+        <v>0.981765196826097</v>
       </c>
       <c r="N14">
-        <v>1.005319293052659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00103874304982</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>0.9954626337278834</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.00764004393529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9772905448519554</v>
+        <v>0.959905176262398</v>
       </c>
       <c r="D15">
-        <v>0.9886308966933488</v>
+        <v>0.9803381819359352</v>
       </c>
       <c r="E15">
-        <v>0.9953110249633508</v>
+        <v>0.9735148686431255</v>
       </c>
       <c r="F15">
-        <v>1.000324626985494</v>
+        <v>0.9671681480993728</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038447625318802</v>
+        <v>1.020878816292411</v>
       </c>
       <c r="J15">
-        <v>1.007482544332091</v>
+        <v>0.9908847444504573</v>
       </c>
       <c r="K15">
-        <v>1.003697310406583</v>
+        <v>0.9955666169968447</v>
       </c>
       <c r="L15">
-        <v>1.010249490802557</v>
+        <v>0.9888793411579736</v>
       </c>
       <c r="M15">
-        <v>1.01516853033811</v>
+        <v>0.9826614288930874</v>
       </c>
       <c r="N15">
-        <v>1.005503167965763</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.001194085734738</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>0.9962097087918925</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.008011126407644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.981636989763034</v>
+        <v>0.9639961774799477</v>
       </c>
       <c r="D16">
-        <v>0.9924788431796469</v>
+        <v>0.9840852094082273</v>
       </c>
       <c r="E16">
-        <v>0.9989686085673041</v>
+        <v>0.9767729408456561</v>
       </c>
       <c r="F16">
-        <v>1.00426551562128</v>
+        <v>0.9730446499286431</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039567771596159</v>
+        <v>1.023996070547485</v>
       </c>
       <c r="J16">
-        <v>1.010519413847311</v>
+        <v>0.9936332243204481</v>
       </c>
       <c r="K16">
-        <v>1.006948153920866</v>
+        <v>0.9987103385340255</v>
       </c>
       <c r="L16">
-        <v>1.013319777524025</v>
+        <v>0.9915366708772932</v>
       </c>
       <c r="M16">
-        <v>1.01852172692345</v>
+        <v>0.9878800987932518</v>
       </c>
       <c r="N16">
-        <v>1.006559770719567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.002098208093584</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.000294431328167</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.010237265802012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9843168337988493</v>
+        <v>0.9665400819352982</v>
       </c>
       <c r="D17">
-        <v>0.9948538535801156</v>
+        <v>0.9864304018802812</v>
       </c>
       <c r="E17">
-        <v>1.001226743809754</v>
+        <v>0.9787997744237916</v>
       </c>
       <c r="F17">
-        <v>1.006698562738124</v>
+        <v>0.9766061324414514</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040254860166501</v>
+        <v>1.025825890694712</v>
       </c>
       <c r="J17">
-        <v>1.012391325806221</v>
+        <v>0.995347705384264</v>
       </c>
       <c r="K17">
-        <v>1.008952719072393</v>
+        <v>1.000680613425755</v>
       </c>
       <c r="L17">
-        <v>1.015213297898438</v>
+        <v>0.9931900196011164</v>
       </c>
       <c r="M17">
-        <v>1.020590152504841</v>
+        <v>0.9910371627354501</v>
       </c>
       <c r="N17">
-        <v>1.007210909797072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.002651795441882</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.002656768250253</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.011633071202293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9858637806806749</v>
+        <v>0.9680383675781697</v>
       </c>
       <c r="D18">
-        <v>0.9962257091011796</v>
+        <v>0.9878332176384327</v>
       </c>
       <c r="E18">
-        <v>1.002531305329325</v>
+        <v>0.9799907569501369</v>
       </c>
       <c r="F18">
-        <v>1.008104177666111</v>
+        <v>0.9786268661324944</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040650181792778</v>
+        <v>1.02685040979218</v>
       </c>
       <c r="J18">
-        <v>1.013471684146508</v>
+        <v>0.9963657039363231</v>
       </c>
       <c r="K18">
-        <v>1.010109911315381</v>
+        <v>1.001865323318963</v>
       </c>
       <c r="L18">
-        <v>1.016306487729838</v>
+        <v>0.9941640520320335</v>
       </c>
       <c r="M18">
-        <v>1.021784473507241</v>
+        <v>0.9928250163097363</v>
       </c>
       <c r="N18">
-        <v>1.007586651623164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.002964860579896</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.003824354865465</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.012458718789748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9863885649169967</v>
+        <v>0.9685730717932707</v>
       </c>
       <c r="D19">
-        <v>0.9966912409825746</v>
+        <v>0.9883631438795754</v>
       </c>
       <c r="E19">
-        <v>1.002974037226093</v>
+        <v>0.9804095064820767</v>
       </c>
       <c r="F19">
-        <v>1.008581205194354</v>
+        <v>0.9792367895353395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040784067013889</v>
+        <v>1.027183717976445</v>
       </c>
       <c r="J19">
-        <v>1.013838145735795</v>
+        <v>0.9967363548365151</v>
       </c>
       <c r="K19">
-        <v>1.010502481820518</v>
+        <v>1.002320173726655</v>
       </c>
       <c r="L19">
-        <v>1.016677362658942</v>
+        <v>0.9945087766229206</v>
       </c>
       <c r="M19">
-        <v>1.022189683955415</v>
+        <v>0.9933572864023634</v>
       </c>
       <c r="N19">
-        <v>1.007714094397977</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003057738577973</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.003907348534036</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.012786934751822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9840309970526566</v>
+        <v>0.9664027675899756</v>
       </c>
       <c r="D20">
-        <v>0.9946004393678406</v>
+        <v>0.9864423926855608</v>
       </c>
       <c r="E20">
-        <v>1.000985777665387</v>
+        <v>0.9786592432714397</v>
       </c>
       <c r="F20">
-        <v>1.006438931352473</v>
+        <v>0.9759502850968852</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040181708783277</v>
+        <v>1.025596725534904</v>
       </c>
       <c r="J20">
-        <v>1.012191685432106</v>
+        <v>0.9952931923588308</v>
       </c>
       <c r="K20">
-        <v>1.008738902699688</v>
+        <v>1.000727900385453</v>
       </c>
       <c r="L20">
-        <v>1.015011315480524</v>
+        <v>0.9930880190404286</v>
       </c>
       <c r="M20">
-        <v>1.02036949700064</v>
+        <v>0.9904296258410601</v>
       </c>
       <c r="N20">
-        <v>1.007141471351561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.0025320042909</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.001039778682472</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.011665124337642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9761719967323571</v>
+        <v>0.9591180904243038</v>
       </c>
       <c r="D21">
-        <v>0.9876414552669167</v>
+        <v>0.9798307994497683</v>
       </c>
       <c r="E21">
-        <v>0.9943707332586255</v>
+        <v>0.9728538945739081</v>
       </c>
       <c r="F21">
-        <v>0.9993115021614576</v>
+        <v>0.9655138717424625</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038158265416235</v>
+        <v>1.020027058343416</v>
       </c>
       <c r="J21">
-        <v>1.006700879314617</v>
+        <v>0.9904304060333602</v>
       </c>
       <c r="K21">
-        <v>1.00286080869907</v>
+        <v>0.9952046305341864</v>
       </c>
       <c r="L21">
-        <v>1.009459544443284</v>
+        <v>0.9883684784853675</v>
       </c>
       <c r="M21">
-        <v>1.014305930096066</v>
+        <v>0.9811794352449049</v>
       </c>
       <c r="N21">
-        <v>1.005231165789475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000913673116423</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.9936755615949914</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.007763103476266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9710713504068988</v>
+        <v>0.9542242296426333</v>
       </c>
       <c r="D22">
-        <v>0.9831338037760604</v>
+        <v>0.9753257271894992</v>
       </c>
       <c r="E22">
-        <v>0.9900880368209235</v>
+        <v>0.9689554531387474</v>
       </c>
       <c r="F22">
-        <v>0.9946970566792234</v>
+        <v>0.9582638918151093</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036833475216801</v>
+        <v>1.016013633074896</v>
       </c>
       <c r="J22">
-        <v>1.003135936189906</v>
+        <v>0.9871138626163918</v>
       </c>
       <c r="K22">
-        <v>0.9990469549905263</v>
+        <v>0.9914023621508089</v>
       </c>
       <c r="L22">
-        <v>1.005858442567539</v>
+        <v>0.9851680566965959</v>
       </c>
       <c r="M22">
-        <v>1.010374303008646</v>
+        <v>0.9747101074751059</v>
       </c>
       <c r="N22">
-        <v>1.003990467408565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9998113069105208</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9885551372758836</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.005060541095631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.97379111800846</v>
+        <v>0.9568413510755153</v>
       </c>
       <c r="D23">
-        <v>0.9855365040812842</v>
+        <v>0.9777367344062894</v>
       </c>
       <c r="E23">
-        <v>0.9923706173667179</v>
+        <v>0.9710391377221792</v>
       </c>
       <c r="F23">
-        <v>0.9971564569956347</v>
+        <v>0.9621741404782331</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037540935508622</v>
+        <v>1.018196398096981</v>
       </c>
       <c r="J23">
-        <v>1.005036926331117</v>
+        <v>0.9888896778140907</v>
       </c>
       <c r="K23">
-        <v>1.00108043758079</v>
+        <v>0.9934391385363278</v>
       </c>
       <c r="L23">
-        <v>1.007778388848157</v>
+        <v>0.9868803054775765</v>
       </c>
       <c r="M23">
-        <v>1.012470333228205</v>
+        <v>0.9782029159741451</v>
       </c>
       <c r="N23">
-        <v>1.00465209794081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.000400466029392</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9913196743958296</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.006490715834352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9841602041708122</v>
+        <v>0.9664960964483257</v>
       </c>
       <c r="D24">
-        <v>0.9947149877831675</v>
+        <v>0.9865196361244961</v>
       </c>
       <c r="E24">
-        <v>1.00109469863203</v>
+        <v>0.9787300189685394</v>
       </c>
       <c r="F24">
-        <v>1.006556289325939</v>
+        <v>0.9760660514253675</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040214779535728</v>
+        <v>1.025676304334015</v>
       </c>
       <c r="J24">
-        <v>1.012281929754745</v>
+        <v>0.9953477730834877</v>
       </c>
       <c r="K24">
-        <v>1.008835554210428</v>
+        <v>1.000787691224632</v>
       </c>
       <c r="L24">
-        <v>1.015102617369709</v>
+        <v>0.9931412472314981</v>
       </c>
       <c r="M24">
-        <v>1.020469239190407</v>
+        <v>0.9905269279447244</v>
       </c>
       <c r="N24">
-        <v>1.007172860099864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.002544869648344</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.001073955459009</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.011679077030081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9955643835854139</v>
+        <v>0.9766653970420166</v>
       </c>
       <c r="D25">
-        <v>1.004842948240441</v>
+        <v>0.9956012241543373</v>
       </c>
       <c r="E25">
-        <v>1.010729456973972</v>
+        <v>0.986843413844952</v>
       </c>
       <c r="F25">
-        <v>1.016937515827217</v>
+        <v>0.9899199720703153</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043105393289526</v>
+        <v>1.032692738098337</v>
       </c>
       <c r="J25">
-        <v>1.020241951581032</v>
+        <v>1.002004416444045</v>
       </c>
       <c r="K25">
-        <v>1.017366546010405</v>
+        <v>1.008268211417948</v>
       </c>
       <c r="L25">
-        <v>1.023163464336731</v>
+        <v>0.9996494611217053</v>
       </c>
       <c r="M25">
-        <v>1.029278467817376</v>
+        <v>1.002676809242683</v>
       </c>
       <c r="N25">
-        <v>1.00994014024679</v>
+        <v>1.004755190551759</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.010690264795256</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.016965539534565</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9841303958688429</v>
+        <v>0.9858415198317209</v>
       </c>
       <c r="D2">
-        <v>1.002159733341258</v>
+        <v>1.004138282536699</v>
       </c>
       <c r="E2">
-        <v>0.9928104176922159</v>
+        <v>0.9942890116942342</v>
       </c>
       <c r="F2">
-        <v>0.9996496454729843</v>
+        <v>1.001057858821629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.037333188125579</v>
+        <v>1.037498268331742</v>
       </c>
       <c r="J2">
-        <v>1.006796351001984</v>
+        <v>1.008454115780232</v>
       </c>
       <c r="K2">
-        <v>1.013589061429335</v>
+        <v>1.015540264016302</v>
       </c>
       <c r="L2">
-        <v>1.004370831952979</v>
+        <v>1.00582848725367</v>
       </c>
       <c r="M2">
-        <v>1.011113863449382</v>
+        <v>1.012502475638397</v>
       </c>
       <c r="N2">
-        <v>1.006343573451409</v>
+        <v>1.009564186704671</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.017367885168782</v>
+        <v>1.018466914515646</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.020678347276893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.022067064845711</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.016359881925446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9892789327368208</v>
+        <v>0.9906515266927766</v>
       </c>
       <c r="D3">
-        <v>1.006649374890318</v>
+        <v>1.008170071216836</v>
       </c>
       <c r="E3">
-        <v>0.9969363485897286</v>
+        <v>0.9981237512271216</v>
       </c>
       <c r="F3">
-        <v>1.006145441860794</v>
+        <v>1.007230837008685</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.040270181983266</v>
+        <v>1.040393798714069</v>
       </c>
       <c r="J3">
-        <v>1.010066193899959</v>
+        <v>1.011400325916837</v>
       </c>
       <c r="K3">
-        <v>1.017197876865063</v>
+        <v>1.018699470958734</v>
       </c>
       <c r="L3">
-        <v>1.007608580078807</v>
+        <v>1.008780695432586</v>
       </c>
       <c r="M3">
-        <v>1.016700289883413</v>
+        <v>1.017772026450159</v>
       </c>
       <c r="N3">
-        <v>1.007428838894742</v>
+        <v>1.010342116737673</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.021789300547613</v>
+        <v>1.022637530440676</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.02322749861148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.024297986864246</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.017089669817794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9924942016300109</v>
+        <v>0.9936607040771686</v>
       </c>
       <c r="D4">
-        <v>1.009436989862721</v>
+        <v>1.010677495440804</v>
       </c>
       <c r="E4">
-        <v>0.9995173132207149</v>
+        <v>1.000527083344139</v>
       </c>
       <c r="F4">
-        <v>1.01011719466726</v>
+        <v>1.011007381943433</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041996956096242</v>
+        <v>1.042096698004417</v>
       </c>
       <c r="J4">
-        <v>1.012091874950076</v>
+        <v>1.013227971638495</v>
       </c>
       <c r="K4">
-        <v>1.019422837530202</v>
+        <v>1.020648738209615</v>
       </c>
       <c r="L4">
-        <v>1.009621567339654</v>
+        <v>1.010619151094401</v>
       </c>
       <c r="M4">
-        <v>1.020095028550341</v>
+        <v>1.020974748312032</v>
       </c>
       <c r="N4">
-        <v>1.008101151252643</v>
+        <v>1.010824722015765</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.02447607544017</v>
+        <v>1.025172330233785</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.024801728069758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.02567733519831</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.017535950573614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9938234143393314</v>
+        <v>0.9949058745231631</v>
       </c>
       <c r="D5">
-        <v>1.010587664449849</v>
+        <v>1.011713652018788</v>
       </c>
       <c r="E5">
-        <v>1.000585647067034</v>
+        <v>1.001522897272994</v>
       </c>
       <c r="F5">
-        <v>1.011739257509512</v>
+        <v>1.012550128599732</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042684905818078</v>
+        <v>1.042775183600319</v>
       </c>
       <c r="J5">
-        <v>1.012926751308897</v>
+        <v>1.013981864383851</v>
       </c>
       <c r="K5">
-        <v>1.020338524944734</v>
+        <v>1.021451622241746</v>
       </c>
       <c r="L5">
-        <v>1.010452586084313</v>
+        <v>1.011378837212648</v>
       </c>
       <c r="M5">
-        <v>1.021476935013289</v>
+        <v>1.022278545760922</v>
       </c>
       <c r="N5">
-        <v>1.008378517256133</v>
+        <v>1.011024013224369</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.025569785915128</v>
+        <v>1.026204220288271</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.025456539845142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.02625308420757</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017719126449997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9940491133320303</v>
+        <v>0.9951173755490618</v>
       </c>
       <c r="D6">
-        <v>1.010785056962766</v>
+        <v>1.01189175631921</v>
       </c>
       <c r="E6">
-        <v>1.000767476346152</v>
+        <v>1.00169246347452</v>
       </c>
       <c r="F6">
-        <v>1.01201253873493</v>
+        <v>1.012810068614335</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042798671916407</v>
+        <v>1.042887371783607</v>
       </c>
       <c r="J6">
-        <v>1.013069682010017</v>
+        <v>1.014111098681057</v>
       </c>
       <c r="K6">
-        <v>1.020496488296298</v>
+        <v>1.021590578438086</v>
       </c>
       <c r="L6">
-        <v>1.01059461232206</v>
+        <v>1.01150879577694</v>
       </c>
       <c r="M6">
-        <v>1.021709986773947</v>
+        <v>1.022498453706687</v>
       </c>
       <c r="N6">
-        <v>1.008426342126922</v>
+        <v>1.011058436346334</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.025754234660143</v>
+        <v>1.026378266204719</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.025577155428744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.026361123957998</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.017751152482233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9925227601284053</v>
+        <v>0.9936953348394424</v>
       </c>
       <c r="D7">
-        <v>1.009467625093656</v>
+        <v>1.01071175206153</v>
       </c>
       <c r="E7">
-        <v>0.9995412507049672</v>
+        <v>1.000556439682443</v>
       </c>
       <c r="F7">
-        <v>1.010149250772713</v>
+        <v>1.011042482392194</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042007436851887</v>
+        <v>1.04210751090268</v>
       </c>
       <c r="J7">
-        <v>1.012113526371289</v>
+        <v>1.013255550894268</v>
       </c>
       <c r="K7">
-        <v>1.01945014800008</v>
+        <v>1.020679633508439</v>
       </c>
       <c r="L7">
-        <v>1.009642212253827</v>
+        <v>1.010645154394483</v>
       </c>
       <c r="M7">
-        <v>1.02012374646424</v>
+        <v>1.021006479155813</v>
       </c>
       <c r="N7">
-        <v>1.008109271286125</v>
+        <v>1.010858692534697</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.024498804263583</v>
+        <v>1.025197443618006</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.024841563649551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.025721695695164</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.017544409261137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9859091998441875</v>
+        <v>0.9875263896269789</v>
       </c>
       <c r="D8">
-        <v>1.003721663415127</v>
+        <v>1.005559074459391</v>
       </c>
       <c r="E8">
-        <v>0.9942362967372164</v>
+        <v>0.9956348458654559</v>
       </c>
       <c r="F8">
-        <v>1.001908690291864</v>
+        <v>1.003218400597719</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.038365351161849</v>
+        <v>1.038517311959502</v>
       </c>
       <c r="J8">
-        <v>1.007934194619092</v>
+        <v>1.00950271782479</v>
       </c>
       <c r="K8">
-        <v>1.014851457301787</v>
+        <v>1.016664267428641</v>
       </c>
       <c r="L8">
-        <v>1.005494911251871</v>
+        <v>1.00687427241423</v>
       </c>
       <c r="M8">
-        <v>1.01306286908012</v>
+        <v>1.014354952378053</v>
       </c>
       <c r="N8">
-        <v>1.006722448374326</v>
+        <v>1.009920992467515</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.018910442325371</v>
+        <v>1.019933070717644</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.021594464946708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.022887565765942</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.016622808395508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9732334319644379</v>
+        <v>0.9757269010319456</v>
       </c>
       <c r="D9">
-        <v>0.9925454890135654</v>
+        <v>0.9955550000790575</v>
       </c>
       <c r="E9">
-        <v>0.9841014943325981</v>
+        <v>0.9862511874320981</v>
       </c>
       <c r="F9">
-        <v>0.9853332816292507</v>
+        <v>0.9874902326645756</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.030427819125865</v>
+        <v>1.030699935783002</v>
       </c>
       <c r="J9">
-        <v>0.9997681303105781</v>
+        <v>1.002166915867978</v>
       </c>
       <c r="K9">
-        <v>1.005760679495498</v>
+        <v>1.008720608341589</v>
       </c>
       <c r="L9">
-        <v>0.9974578901516709</v>
+        <v>0.9995713390120089</v>
       </c>
       <c r="M9">
-        <v>0.9986688843231788</v>
+        <v>1.000789586111953</v>
       </c>
       <c r="N9">
-        <v>1.004011011960589</v>
+        <v>1.00799304695906</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.007518114443625</v>
+        <v>1.009196587192491</v>
       </c>
       <c r="Q9">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.015163043663527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.017267089117144</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.014761893442013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9639078893613321</v>
+        <v>0.9671310077506526</v>
       </c>
       <c r="D10">
-        <v>0.9841761869171444</v>
+        <v>0.9881296377299637</v>
       </c>
       <c r="E10">
-        <v>0.9766689809525579</v>
+        <v>0.9794414963645255</v>
       </c>
       <c r="F10">
-        <v>0.9724497602016337</v>
+        <v>0.97532279680196</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.023757962925296</v>
+        <v>1.024150213311326</v>
       </c>
       <c r="J10">
-        <v>0.9936304539162328</v>
+        <v>0.9967122656356036</v>
       </c>
       <c r="K10">
-        <v>0.9988371460854847</v>
+        <v>1.002716574548361</v>
       </c>
       <c r="L10">
-        <v>0.991472660776235</v>
+        <v>0.9941921341483979</v>
       </c>
       <c r="M10">
-        <v>0.9873349203987052</v>
+        <v>0.9901523734395006</v>
       </c>
       <c r="N10">
-        <v>1.001978270471058</v>
+        <v>1.006674082769198</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.998601595578721</v>
+        <v>1.000831403892297</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.010284683109554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.013040656829831</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.013334049849747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9596240201642697</v>
+        <v>0.9632436731932088</v>
       </c>
       <c r="D11">
-        <v>0.9802565972716363</v>
+        <v>0.9847001824830814</v>
       </c>
       <c r="E11">
-        <v>0.9732769361233939</v>
+        <v>0.976385806680475</v>
       </c>
       <c r="F11">
-        <v>0.9664925609532362</v>
+        <v>0.9697520203353573</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.020447369632278</v>
+        <v>1.020911790906474</v>
       </c>
       <c r="J11">
-        <v>0.9907785973510927</v>
+        <v>0.9942297405985643</v>
       </c>
       <c r="K11">
-        <v>0.99556070369323</v>
+        <v>0.9999165161842949</v>
       </c>
       <c r="L11">
-        <v>0.9887210412066353</v>
+        <v>0.9917672284402692</v>
       </c>
       <c r="M11">
-        <v>0.9820753060538845</v>
+        <v>0.985267838495026</v>
       </c>
       <c r="N11">
-        <v>1.001074901368746</v>
+        <v>1.006278293026004</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.99489830113903</v>
+        <v>0.9974235651881643</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.008001958778334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.011097999111882</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.012682141981819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9579082787923923</v>
+        <v>0.961692160350138</v>
       </c>
       <c r="D12">
-        <v>0.9786350678310906</v>
+        <v>0.9832837787260199</v>
       </c>
       <c r="E12">
-        <v>0.97192043304596</v>
+        <v>0.9751671862905807</v>
       </c>
       <c r="F12">
-        <v>0.9641110073759575</v>
+        <v>0.9675349022976996</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.019125131104409</v>
+        <v>1.019621674276131</v>
       </c>
       <c r="J12">
-        <v>0.989607402940989</v>
+        <v>0.9932111650458222</v>
       </c>
       <c r="K12">
-        <v>0.9941833612261562</v>
+        <v>0.9987383987885923</v>
       </c>
       <c r="L12">
-        <v>0.987606117549686</v>
+        <v>0.9907861259677244</v>
       </c>
       <c r="M12">
-        <v>0.9799596701254063</v>
+        <v>0.9833116821616</v>
       </c>
       <c r="N12">
-        <v>1.000719508130579</v>
+        <v>1.006134189753916</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.9935673146552818</v>
+        <v>0.9962177395906866</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.007028062011434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.010264997194587</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.012409846277379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9581549959981143</v>
+        <v>0.9619091264039906</v>
       </c>
       <c r="D13">
-        <v>0.9787971851086315</v>
+        <v>0.9834183570520855</v>
       </c>
       <c r="E13">
-        <v>0.9721211153720608</v>
+        <v>0.9753402227792771</v>
       </c>
       <c r="F13">
-        <v>0.9645623418037481</v>
+        <v>0.9679632956339232</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.019403530379181</v>
+        <v>1.019894868124554</v>
       </c>
       <c r="J13">
-        <v>0.9897427642968621</v>
+        <v>0.9933189761616918</v>
       </c>
       <c r="K13">
-        <v>0.9942967492658308</v>
+        <v>0.9988251545316756</v>
       </c>
       <c r="L13">
-        <v>0.9877567521689535</v>
+        <v>0.9909099406874263</v>
       </c>
       <c r="M13">
-        <v>0.9803550503733188</v>
+        <v>0.9836849310836989</v>
       </c>
       <c r="N13">
-        <v>1.000793271147965</v>
+        <v>1.00615897677481</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>0.9941684423402588</v>
+        <v>0.9968006511602219</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.007105647254401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.010323510791159</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.012437885197756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9592160765600476</v>
+        <v>0.9628627643688031</v>
       </c>
       <c r="D14">
-        <v>0.9797181301606336</v>
+        <v>0.9842157786083657</v>
       </c>
       <c r="E14">
-        <v>0.9729662234785245</v>
+        <v>0.976092281615353</v>
       </c>
       <c r="F14">
-        <v>0.9661576919921212</v>
+        <v>0.9694587486665666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.02031985056864</v>
+        <v>1.020790927168087</v>
       </c>
       <c r="J14">
-        <v>0.9904280026444734</v>
+        <v>0.9939044761355916</v>
       </c>
       <c r="K14">
-        <v>0.9950504301104364</v>
+        <v>0.9994589988803302</v>
       </c>
       <c r="L14">
-        <v>0.9884342879171475</v>
+        <v>0.9914971812539959</v>
       </c>
       <c r="M14">
-        <v>0.981765196826097</v>
+        <v>0.9849983244320294</v>
       </c>
       <c r="N14">
-        <v>1.00103874304982</v>
+        <v>1.006253876430012</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>0.9954626337278834</v>
+        <v>0.9980179970445894</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.00764004393529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.010773295173199</v>
+      </c>
+      <c r="S14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T14">
+        <v>1.012593520715209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.959905176262398</v>
+        <v>0.9634840190617242</v>
       </c>
       <c r="D15">
-        <v>0.9803381819359352</v>
+        <v>0.9847552944511258</v>
       </c>
       <c r="E15">
-        <v>0.9735148686431255</v>
+        <v>0.9765827621034254</v>
       </c>
       <c r="F15">
-        <v>0.9671681480993728</v>
+        <v>0.9704046457345223</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.020878816292411</v>
+        <v>1.021337288722217</v>
       </c>
       <c r="J15">
-        <v>0.9908847444504573</v>
+        <v>0.9942981255260501</v>
       </c>
       <c r="K15">
-        <v>0.9955666169968447</v>
+        <v>0.9998969833504215</v>
       </c>
       <c r="L15">
-        <v>0.9888793411579736</v>
+        <v>0.9918857602425982</v>
       </c>
       <c r="M15">
-        <v>0.9826614288930874</v>
+        <v>0.9858319636222533</v>
       </c>
       <c r="N15">
-        <v>1.001194085734738</v>
+        <v>1.006318318307586</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>0.9962097087918925</v>
+        <v>0.9987155335223072</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.008011126407644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.011089634430617</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.012699406586781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9639961774799477</v>
+        <v>0.967188932405491</v>
       </c>
       <c r="D16">
-        <v>0.9840852094082273</v>
+        <v>0.9880305458402041</v>
       </c>
       <c r="E16">
-        <v>0.9767729408456561</v>
+        <v>0.9795117137733428</v>
       </c>
       <c r="F16">
-        <v>0.9730446499286431</v>
+        <v>0.9759091069022998</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.023996070547485</v>
+        <v>1.024386056428622</v>
       </c>
       <c r="J16">
-        <v>0.9936332243204481</v>
+        <v>0.9966864864728768</v>
       </c>
       <c r="K16">
-        <v>0.9987103385340255</v>
+        <v>1.002582004136358</v>
       </c>
       <c r="L16">
-        <v>0.9915366708772932</v>
+        <v>0.9942232145724663</v>
       </c>
       <c r="M16">
-        <v>0.9878800987932518</v>
+        <v>0.9906893901235136</v>
       </c>
       <c r="N16">
-        <v>1.002098208093584</v>
+        <v>1.006735360010615</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.000294431328167</v>
+        <v>1.002514824278135</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.010237265802012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.012991683542787</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.013342106703109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9665400819352982</v>
+        <v>0.9695083775722568</v>
       </c>
       <c r="D17">
-        <v>0.9864304018802812</v>
+        <v>0.9900933589267703</v>
       </c>
       <c r="E17">
-        <v>0.9787997744237916</v>
+        <v>0.9813477326603003</v>
       </c>
       <c r="F17">
-        <v>0.9766061324414514</v>
+        <v>0.979252456067034</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.025825890694712</v>
+        <v>1.026178228240782</v>
       </c>
       <c r="J17">
-        <v>0.995347705384264</v>
+        <v>0.9981909221361677</v>
       </c>
       <c r="K17">
-        <v>1.000680613425755</v>
+        <v>1.004277346069112</v>
       </c>
       <c r="L17">
-        <v>0.9931900196011164</v>
+        <v>0.9956909033663948</v>
       </c>
       <c r="M17">
-        <v>0.9910371627354501</v>
+        <v>0.9936343144512866</v>
       </c>
       <c r="N17">
-        <v>1.002651795441882</v>
+        <v>1.007027298492078</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.002656768250253</v>
+        <v>1.004709711949911</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.011633071202293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.014193305156157</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.013744717550981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9680383675781697</v>
+        <v>0.9708816755474653</v>
       </c>
       <c r="D18">
-        <v>0.9878332176384327</v>
+        <v>0.9913329164868722</v>
       </c>
       <c r="E18">
-        <v>0.9799907569501369</v>
+        <v>0.9824333081542505</v>
       </c>
       <c r="F18">
-        <v>0.9786268661324944</v>
+        <v>0.9811487621540143</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.02685040979218</v>
+        <v>1.027182107941299</v>
       </c>
       <c r="J18">
-        <v>0.9963657039363231</v>
+        <v>0.9990917388845454</v>
       </c>
       <c r="K18">
-        <v>1.001865323318963</v>
+        <v>1.005302951159398</v>
       </c>
       <c r="L18">
-        <v>0.9941640520320335</v>
+        <v>0.996562315229661</v>
       </c>
       <c r="M18">
-        <v>0.9928250163097363</v>
+        <v>0.9953010246864092</v>
       </c>
       <c r="N18">
-        <v>1.002964860579896</v>
+        <v>1.007206879978963</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.003824354865465</v>
+        <v>1.005781976909624</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.012458718789748</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.014905313901112</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.013983274928901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9685730717932707</v>
+        <v>0.9713772881789978</v>
       </c>
       <c r="D19">
-        <v>0.9883631438795754</v>
+        <v>0.9918061578596554</v>
       </c>
       <c r="E19">
-        <v>0.9804095064820767</v>
+        <v>0.9828204225878843</v>
       </c>
       <c r="F19">
-        <v>0.9792367895353395</v>
+        <v>0.9817161349483957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.027183717976445</v>
+        <v>1.027508521921202</v>
       </c>
       <c r="J19">
-        <v>0.9967363548365151</v>
+        <v>0.9994257661812709</v>
       </c>
       <c r="K19">
-        <v>1.002320173726655</v>
+        <v>1.005702530738148</v>
       </c>
       <c r="L19">
-        <v>0.9945087766229206</v>
+        <v>0.996876260754208</v>
       </c>
       <c r="M19">
-        <v>0.9933572864023634</v>
+        <v>0.9957918321327789</v>
       </c>
       <c r="N19">
-        <v>1.003057738577973</v>
+        <v>1.00726283183092</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.003907348534036</v>
+        <v>1.005832866694942</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.012786934751822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.015195056987282</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.014068800476552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9664027675899756</v>
+        <v>0.9694036872396439</v>
       </c>
       <c r="D20">
-        <v>0.9864423926855608</v>
+        <v>0.9901218735171455</v>
       </c>
       <c r="E20">
-        <v>0.9786592432714397</v>
+        <v>0.9812414521538821</v>
       </c>
       <c r="F20">
-        <v>0.9759502850968852</v>
+        <v>0.9786112428184225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.025596725534904</v>
+        <v>1.025951904462909</v>
       </c>
       <c r="J20">
-        <v>0.9952931923588308</v>
+        <v>0.9981672154386884</v>
       </c>
       <c r="K20">
-        <v>1.000727900385453</v>
+        <v>1.004340670598295</v>
       </c>
       <c r="L20">
-        <v>0.9930880190404286</v>
+        <v>0.9956223676033963</v>
       </c>
       <c r="M20">
-        <v>0.9904296258410601</v>
+        <v>0.9930409113779994</v>
       </c>
       <c r="N20">
-        <v>1.0025320042909</v>
+        <v>1.006960471669855</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.001039778682472</v>
+        <v>1.003106442297293</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.011665124337642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.01423656823383</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.013723819012819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9591180904243038</v>
+        <v>0.9628238650112895</v>
       </c>
       <c r="D21">
-        <v>0.9798307994497683</v>
+        <v>0.9843579009183268</v>
       </c>
       <c r="E21">
-        <v>0.9728538945739081</v>
+        <v>0.9760408828537671</v>
       </c>
       <c r="F21">
-        <v>0.9655138717424625</v>
+        <v>0.9688416459222163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.020027058343416</v>
+        <v>1.020503732212371</v>
       </c>
       <c r="J21">
-        <v>0.9904304060333602</v>
+        <v>0.9939625476251919</v>
       </c>
       <c r="K21">
-        <v>0.9952046305341864</v>
+        <v>0.9996418035760671</v>
       </c>
       <c r="L21">
-        <v>0.9883684784853675</v>
+        <v>0.9914908433805516</v>
       </c>
       <c r="M21">
-        <v>0.9811794352449049</v>
+        <v>0.9844383851267762</v>
       </c>
       <c r="N21">
-        <v>1.000913673116423</v>
+        <v>1.006268420550096</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.9936755615949914</v>
+        <v>0.9962549794605802</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.007763103476266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.010917867115595</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.012597601324687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9542242296426333</v>
+        <v>0.9584180932049369</v>
       </c>
       <c r="D22">
-        <v>0.9753257271894992</v>
+        <v>0.9804415862057987</v>
       </c>
       <c r="E22">
-        <v>0.9689554531387474</v>
+        <v>0.9725599484952271</v>
       </c>
       <c r="F22">
-        <v>0.9582638918151093</v>
+        <v>0.962072655382548</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.016013633074896</v>
+        <v>1.016590117669933</v>
       </c>
       <c r="J22">
-        <v>0.9871138626163918</v>
+        <v>0.9910984196373911</v>
       </c>
       <c r="K22">
-        <v>0.9914023621508089</v>
+        <v>0.9964107177070943</v>
       </c>
       <c r="L22">
-        <v>0.9851680566965959</v>
+        <v>0.9886953269900054</v>
       </c>
       <c r="M22">
-        <v>0.9747101074751059</v>
+        <v>0.9784348575796959</v>
       </c>
       <c r="N22">
-        <v>0.9998113069105208</v>
+        <v>1.00577155015431</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9885551372758836</v>
+        <v>0.9915032543417635</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.005060541095631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.008617962296483</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.011816907449887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9568413510755153</v>
+        <v>0.9607594345239515</v>
       </c>
       <c r="D23">
-        <v>0.9777367344062894</v>
+        <v>0.9825254220140628</v>
       </c>
       <c r="E23">
-        <v>0.9710391377221792</v>
+        <v>0.9744073979563475</v>
       </c>
       <c r="F23">
-        <v>0.9621741404782331</v>
+        <v>0.9657133954991995</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.018196398096981</v>
+        <v>1.018716025492323</v>
       </c>
       <c r="J23">
-        <v>0.9888896778140907</v>
+        <v>0.9926186232212497</v>
       </c>
       <c r="K23">
-        <v>0.9934391385363278</v>
+        <v>0.9981301399195056</v>
       </c>
       <c r="L23">
-        <v>0.9868803054775765</v>
+        <v>0.9901784657826972</v>
       </c>
       <c r="M23">
-        <v>0.9782029159741451</v>
+        <v>0.9816667236282944</v>
       </c>
       <c r="N23">
-        <v>1.000400466029392</v>
+        <v>1.005994776668287</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9913196743958296</v>
+        <v>0.994061244922083</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.006490715834352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.009822780173854</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.012231492720252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9664960964483257</v>
+        <v>0.9694903280035735</v>
       </c>
       <c r="D24">
-        <v>0.9865196361244961</v>
+        <v>0.990189604267284</v>
       </c>
       <c r="E24">
-        <v>0.9787300189685394</v>
+        <v>0.9813068173206118</v>
       </c>
       <c r="F24">
-        <v>0.9760660514253675</v>
+        <v>0.978719779988579</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.025676304334015</v>
+        <v>1.026030161678671</v>
       </c>
       <c r="J24">
-        <v>0.9953477730834877</v>
+        <v>0.9982156038026453</v>
       </c>
       <c r="K24">
-        <v>1.000787691224632</v>
+        <v>1.004391219996209</v>
       </c>
       <c r="L24">
-        <v>0.9931412472314981</v>
+        <v>0.9956703561432976</v>
       </c>
       <c r="M24">
-        <v>0.9905269279447244</v>
+        <v>0.9931311984001607</v>
       </c>
       <c r="N24">
-        <v>1.002544869648344</v>
+        <v>1.00696557847379</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.001073955459009</v>
+        <v>1.003135178899278</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.011679077030081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.014241346747027</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.013732662395509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9766653970420166</v>
+        <v>0.9789046267690772</v>
       </c>
       <c r="D25">
-        <v>0.9956012241543373</v>
+        <v>0.998278580393444</v>
       </c>
       <c r="E25">
-        <v>0.986843413844952</v>
+        <v>0.9887752965835651</v>
       </c>
       <c r="F25">
-        <v>0.9899199720703153</v>
+        <v>0.9918322451913513</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.032692738098337</v>
+        <v>1.032928041793329</v>
       </c>
       <c r="J25">
-        <v>1.002004416444045</v>
+        <v>1.004163404857729</v>
       </c>
       <c r="K25">
-        <v>1.008268211417948</v>
+        <v>1.01090367809026</v>
       </c>
       <c r="L25">
-        <v>0.9996494611217053</v>
+        <v>1.001550397187464</v>
       </c>
       <c r="M25">
-        <v>1.002676809242683</v>
+        <v>1.004558692266946</v>
       </c>
       <c r="N25">
-        <v>1.004755190551759</v>
+        <v>1.008488433757216</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.010690264795256</v>
+        <v>1.012179712429263</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.016965539534565</v>
+        <v>1.018842907686491</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.015278518248749</v>
       </c>
     </row>
   </sheetData>
